--- a/TA buku/Results/Categorization/dp-partial-ner-w2v.xlsx
+++ b/TA buku/Results/Categorization/dp-partial-ner-w2v.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2505" uniqueCount="1542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2505" uniqueCount="1530">
   <si>
     <t>id</t>
   </si>
@@ -3142,13 +3142,13 @@
     <t>SERVICE|FOOD|PRICES</t>
   </si>
   <si>
-    <t>PRICES|PRICES|PRICES|FOOD|PRICES|FOOD</t>
+    <t>PRICES|PRICES|PRICES|FOOD|PRICES</t>
   </si>
   <si>
     <t>FOOD|PRICES|FOOD|PRICES</t>
   </si>
   <si>
-    <t>SERVICE|FOOD|PRICES|PRICES|FOOD</t>
+    <t>SERVICE|FOOD|PRICES|PRICES</t>
   </si>
   <si>
     <t>FOOD|PRICES</t>
@@ -3178,9 +3178,6 @@
     <t>PRICES|PRICES</t>
   </si>
   <si>
-    <t>PRICES|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
     <t>SERVICE|FOOD|SERVICE|PRICES</t>
   </si>
   <si>
@@ -3223,7 +3220,7 @@
     <t>AMBIENCE|FOOD|FOOD</t>
   </si>
   <si>
-    <t>AMBIENCE|FOOD||AMBIENCE|PRICES</t>
+    <t>AMBIENCE|AMBIENCE|PRICES</t>
   </si>
   <si>
     <t>AMBIENCE|PRICES|AMBIENCE|AMBIENCE</t>
@@ -3256,7 +3253,7 @@
     <t>PRICES|PRICES|FOOD|SERVICE|SERVICE</t>
   </si>
   <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|FOOD|SERVICE||AMBIENCE|AMBIENCE|PRICES|AMBIENCE||</t>
+    <t>AMBIENCE|FOOD|FOOD|SERVICE||AMBIENCE|AMBIENCE|PRICES||</t>
   </si>
   <si>
     <t>FOOD||FOOD|SERVICE|SERVICE|FOOD|PRICES</t>
@@ -3265,15 +3262,12 @@
     <t>AMBIENCE|SERVICE|FOOD</t>
   </si>
   <si>
-    <t>FOOD|AMBIENCE|PRICES|PRICES|</t>
+    <t>FOOD|AMBIENCE|PRICES|PRICES</t>
   </si>
   <si>
     <t>FOOD|SERVICE|AMBIENCE|FOOD|</t>
   </si>
   <si>
-    <t>FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
     <t>FOOD|SERVICE||FOOD|FOOD|AMBIENCE</t>
   </si>
   <si>
@@ -3289,7 +3283,7 @@
     <t>AMBIENCE|AMBIENCE</t>
   </si>
   <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|FOOD|SERVICE|FOOD|PRICES|SERVICE</t>
+    <t>AMBIENCE|SERVICE|FOOD|PRICES|SERVICE</t>
   </si>
   <si>
     <t>AMBIENCE|FOOD|PRICES|SERVICE|FOOD|FOOD</t>
@@ -3298,16 +3292,13 @@
     <t>FOOD|AMBIENCE|PRICES|AMBIENCE</t>
   </si>
   <si>
-    <t>PRICES|PRICES|SERVICE</t>
-  </si>
-  <si>
     <t>PRICES|PRICES|PRICES|PRICES|FOOD|AMBIENCE</t>
   </si>
   <si>
     <t>FOOD|FOOD|FOOD|FOOD|FOOD|SERVICE</t>
   </si>
   <si>
-    <t>FOOD|FOOD|SERVICE|FOOD|FOOD||FOOD</t>
+    <t>FOOD|FOOD|FOOD|FOOD</t>
   </si>
   <si>
     <t>FOOD|FOOD|AMBIENCE|FOOD</t>
@@ -3319,7 +3310,7 @@
     <t>FOOD|SERVICE|FOOD|FOOD|FOOD|FOOD</t>
   </si>
   <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
   </si>
   <si>
     <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
@@ -3340,27 +3331,21 @@
     <t>SERVICE|SERVICE</t>
   </si>
   <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
     <t>|FOOD|FOOD||FOOD</t>
   </si>
   <si>
-    <t>SERVICE||FOOD|FOOD</t>
+    <t>SERVICE|</t>
   </si>
   <si>
     <t>AMBIENCE|FOOD|SERVICE</t>
   </si>
   <si>
-    <t>FOOD||AMBIENCE|SERVICE|AMBIENCE|PRICES|AMBIENCE</t>
+    <t>FOOD|AMBIENCE|SERVICE|AMBIENCE|PRICES|AMBIENCE</t>
   </si>
   <si>
     <t>FOOD|FOOD|FOOD</t>
   </si>
   <si>
-    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
     <t>AMBIENCE|FOOD|FOOD|FOOD|PRICES</t>
   </si>
   <si>
@@ -3388,9 +3373,6 @@
     <t>SERVICE|SERVICE|FOOD|FOOD|PRICES|FOOD</t>
   </si>
   <si>
-    <t>AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
     <t>|AMBIENCE|FOOD</t>
   </si>
   <si>
@@ -3403,9 +3385,6 @@
     <t>SERVICE|AMBIENCE</t>
   </si>
   <si>
-    <t>SERVICE|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
     <t>AMBIENCE|SERVICE|SERVICE</t>
   </si>
   <si>
@@ -3421,9 +3400,6 @@
     <t>AMBIENCE|AMBIENCE|FOOD</t>
   </si>
   <si>
-    <t>PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
     <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
@@ -3436,7 +3412,7 @@
     <t>SERVICE|SERVICE|AMBIENCE</t>
   </si>
   <si>
-    <t>SERVICE|FOOD|SERVICE|</t>
+    <t>SERVICE|FOOD|SERVICE</t>
   </si>
   <si>
     <t>SERVICE|AMBIENCE|PRICES|FOOD|FOOD</t>
@@ -3451,13 +3427,10 @@
     <t>SERVICE|FOOD|FOOD|FOOD</t>
   </si>
   <si>
-    <t>FOOD|FOOD|FOOD|</t>
-  </si>
-  <si>
     <t>FOOD||SERVICE</t>
   </si>
   <si>
-    <t>SERVICE|PRICES|SERVICE|SERVICE|FOOD</t>
+    <t>SERVICE|PRICES|SERVICE|FOOD</t>
   </si>
   <si>
     <t>SERVICE|SERVICE|SERVICE|FOOD|SERVICE</t>
@@ -3472,36 +3445,27 @@
     <t>SERVICE|SERVICE|PRICES</t>
   </si>
   <si>
-    <t>SERVICE|PRICES|SERVICE|FOOD</t>
-  </si>
-  <si>
     <t>AMBIENCE|SERVICE|AMBIENCE|FOOD|SERVICE</t>
   </si>
   <si>
-    <t>|FOOD|SERVICE</t>
-  </si>
-  <si>
     <t>|AMBIENCE</t>
   </si>
   <si>
-    <t>SERVICE|FOOD|SERVICE|SERVICE</t>
+    <t>SERVICE|SERVICE|SERVICE</t>
   </si>
   <si>
     <t>SERVICE|SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|SERVICE|SERVICE|PRICES|SERVICE|FOOD</t>
+    <t>AMBIENCE|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|SERVICE|SERVICE|PRICES|SERVICE</t>
   </si>
   <si>
     <t>FOOD|FOOD|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
-    <t>SERVICE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
     <t>AMBIENCE|FOOD|SERVICE|FOOD</t>
   </si>
   <si>
@@ -3517,10 +3481,10 @@
     <t>list!interesting|wine!interesting|values!many</t>
   </si>
   <si>
-    <t>price!beat</t>
-  </si>
-  <si>
-    <t>advanatage!-|half!-|price!-|sushi!-|deal!-|saturday!-</t>
+    <t>|price!beat</t>
+  </si>
+  <si>
+    <t>advanatage!-|half!-|price!-|sushi!-|deal!-</t>
   </si>
   <si>
     <t>menu!worth|prix!worth|fixe!worth|penny!more</t>
@@ -3529,7 +3493,7 @@
     <t>food!fresh</t>
   </si>
   <si>
-    <t>service!great|food!great|price!reasonable|beginning!great|evening!service</t>
+    <t>service!great|food!great|price!reasonable|beginning!great</t>
   </si>
   <si>
     <t>pizza!-</t>
@@ -3550,10 +3514,10 @@
     <t>selection!great|wine!great|value!great|price!great|champagne!price|house!value</t>
   </si>
   <si>
-    <t>dessert!tiny</t>
-  </si>
-  <si>
-    <t>drinks!welll</t>
+    <t>|dessert!tiny</t>
+  </si>
+  <si>
+    <t>|drinks!welll</t>
   </si>
   <si>
     <t>beers!interesting|wines!interesting</t>
@@ -3565,7 +3529,7 @@
     <t>sushi!good</t>
   </si>
   <si>
-    <t>roll!huge|spicy!huge|tuna!huge</t>
+    <t>|roll!huge|spicy!huge|tuna!huge</t>
   </si>
   <si>
     <t>choices!limited|food!more</t>
@@ -3577,10 +3541,10 @@
     <t>price!reasonable</t>
   </si>
   <si>
-    <t>menu!typical|restaurant!menu</t>
-  </si>
-  <si>
-    <t>wines!average</t>
+    <t>|menu!typical|restaurant!menu</t>
+  </si>
+  <si>
+    <t>|wines!average</t>
   </si>
   <si>
     <t>food!greatest|menu!greatest|price!good|price!greatest|allergies!food|prixe!food|fixe!food|tasting!food</t>
@@ -3595,7 +3559,7 @@
     <t>prices!cheap|quality!prices</t>
   </si>
   <si>
-    <t>prices!mortal|gods!mortal|years!last|secret!last</t>
+    <t>|prices!mortal|gods!mortal|secret!last</t>
   </si>
   <si>
     <t>everytime!exceptional|food!exceptional|service!food|value!food</t>
@@ -3604,7 +3568,7 @@
     <t>place!pricey|food!worth</t>
   </si>
   <si>
-    <t>dishes!average</t>
+    <t>|dishes!average</t>
   </si>
   <si>
     <t>prices!cheap</t>
@@ -3619,7 +3583,7 @@
     <t>prices!authentic</t>
   </si>
   <si>
-    <t>fallback!only|prices!only|restaurant!prices</t>
+    <t>|fallback!only|prices!only|restaurant!prices</t>
   </si>
   <si>
     <t>seafood!good|prices!high</t>
@@ -3634,7 +3598,7 @@
     <t>plate!delight|cheese!delight|bargain!plate|delight!bargain</t>
   </si>
   <si>
-    <t>list!extensive|wine!extensive</t>
+    <t>|list!extensive|wine!extensive</t>
   </si>
   <si>
     <t>food!good|deal!great|place!food|self!great</t>
@@ -3658,7 +3622,7 @@
     <t>food!authentic</t>
   </si>
   <si>
-    <t>sandwiches!dry</t>
+    <t>|sandwiches!dry</t>
   </si>
   <si>
     <t>place!worth|prices!place</t>
@@ -3673,7 +3637,7 @@
     <t>shanty!recommend|vanilla!recommend|mmmm!shanty</t>
   </si>
   <si>
-    <t>location!good|college!near|hutner!near|fact!location|prices!reasonable</t>
+    <t>location!good|fact!location|prices!reasonable</t>
   </si>
   <si>
     <t>rest!worth|sum!worth</t>
@@ -3706,7 +3670,7 @@
     <t>ravioli!good|everything!overpriced|bit!everything</t>
   </si>
   <si>
-    <t>food!average|draw!food</t>
+    <t>|food!average|draw!food</t>
   </si>
   <si>
     <t>place!bargain</t>
@@ -3733,7 +3697,7 @@
     <t>price!-|quality!-|fish!-|return!-|visit!-</t>
   </si>
   <si>
-    <t>decor!fabulous|manhattan!trendy|restaurant!trendy|food!trendy|staff!restaurant|manhattanite!restaurant|side!soho/village/upper|west!soho/village/upper|prices!side|avenue!restaurant|clientele!pretentious|clientele!soho/village/upper</t>
+    <t>decor!fabulous|restaurant!trendy|food!trendy|staff!restaurant|manhattanite!restaurant|side!soho/village/upper|west!soho/village/upper|prices!side|clientele!pretentious|clientele!soho/village/upper</t>
   </si>
   <si>
     <t>restaurants!good|uws!good|food!overpriced|wait-staff!overpriced|service!clumsy|diner!clumsy|management!diner</t>
@@ -3745,7 +3709,7 @@
     <t>prices!mediocre|food!okay</t>
   </si>
   <si>
-    <t>food!solid|decor!solid|prices!reasonable|prices!nice|baluchi!food</t>
+    <t>food!solid|decor!solid|prices!reasonable|prices!nice</t>
   </si>
   <si>
     <t>sushi!-</t>
@@ -3766,7 +3730,7 @@
     <t>food!overpriced|service!overpriced</t>
   </si>
   <si>
-    <t>dinner!-|manhattan!-|feet!-</t>
+    <t>dinner!-|feet!-</t>
   </si>
   <si>
     <t>guacamole!bland|plate!bland</t>
@@ -3781,7 +3745,7 @@
     <t>food!decent|price!decent|people!friendly|people!decent</t>
   </si>
   <si>
-    <t>prices!high|view!prices</t>
+    <t>|prices!high|view!prices</t>
   </si>
   <si>
     <t>price!-|prestige!-|location!-</t>
@@ -3796,7 +3760,7 @@
     <t>place!great|value!great</t>
   </si>
   <si>
-    <t>food!flavorful</t>
+    <t>|food!flavorful</t>
   </si>
   <si>
     <t>service!helpful|price!helpful|dish!helpful</t>
@@ -3817,13 +3781,13 @@
     <t>restaurant!expensive</t>
   </si>
   <si>
-    <t>restaurants!new|landmark!new|city!new</t>
-  </si>
-  <si>
-    <t>service!ok</t>
-  </si>
-  <si>
-    <t>home!-|casa!-|la!-|femme!-|visit!-|diners!-|money!-|time!-</t>
+    <t>|restaurants!new|landmark!new</t>
+  </si>
+  <si>
+    <t>|service!ok</t>
+  </si>
+  <si>
+    <t>home!-|visit!-|diners!-|money!-|time!-</t>
   </si>
   <si>
     <t>drinks!horrible</t>
@@ -3835,7 +3799,7 @@
     <t>show!missed|food!enjoy|wallets!empy|experience!good|dancers!food|belly!food</t>
   </si>
   <si>
-    <t>bill!inedible|portion!bill</t>
+    <t>|bill!inedible|portion!bill</t>
   </si>
   <si>
     <t>money!wasted</t>
@@ -3856,7 +3820,7 @@
     <t>stone!-|bowl!-</t>
   </si>
   <si>
-    <t>deal!wonderful|bbe!wonderful|party!bbe</t>
+    <t>deal!wonderful|party!bbe</t>
   </si>
   <si>
     <t>company!great|date!super|point!super|price!super|things!date|brasserie!good</t>
@@ -3871,7 +3835,7 @@
     <t>food!good|price!high</t>
   </si>
   <si>
-    <t>bite!-|salmon!-|years!-|restaurants!-|salmon!-|flatbush!-|farms!-</t>
+    <t>bite!-|salmon!-|restaurants!-|salmon!-</t>
   </si>
   <si>
     <t>eggplant!cold</t>
@@ -3892,7 +3856,7 @@
     <t>bread!stale</t>
   </si>
   <si>
-    <t>place!empty</t>
+    <t>|place!empty</t>
   </si>
   <si>
     <t>food!lousy|portions!tiny</t>
@@ -3907,28 +3871,28 @@
     <t>cart!-|attendant!-|lotus!-|leaf!-|rice!-|rice!-</t>
   </si>
   <si>
-    <t>mai!greasy|pork!greasy|fun!dry|chow!dry|family!loud|shu!greasy</t>
+    <t>mai!greasy|pork!greasy|fun!dry|family!loud|shu!greasy</t>
   </si>
   <si>
     <t>service!excellent|perfection!service</t>
   </si>
   <si>
-    <t>visit!special</t>
+    <t>|visit!special</t>
   </si>
   <si>
     <t>bit!sweet|stuff!sweet|food!average|fusion!thai|thing!bit</t>
   </si>
   <si>
-    <t>thing!only|chicken!only|puree!chicken</t>
-  </si>
-  <si>
-    <t>salt!more|bit!salt</t>
+    <t>|thing!only|chicken!only|puree!chicken</t>
+  </si>
+  <si>
+    <t>|salt!more|bit!salt</t>
   </si>
   <si>
     <t>effort!kills|tho!effort</t>
   </si>
   <si>
-    <t>list!extensive|sake!extensive</t>
+    <t>|list!extensive|sake!extensive</t>
   </si>
   <si>
     <t>roll!good|spicy!good|tempura!awesome|tuna!good|appetizer!tempura|rock!awesome|shrimp!awesome</t>
@@ -3958,7 +3922,7 @@
     <t>rice!good|ration!good</t>
   </si>
   <si>
-    <t>food!prepared|impecable!food</t>
+    <t>|food!prepared|impecable!food</t>
   </si>
   <si>
     <t>dishes!great</t>
@@ -3967,7 +3931,7 @@
     <t>somosas!-|chai!-|chole!-|dhosas!-|dhal!-</t>
   </si>
   <si>
-    <t>service!-|varys!-|day!-|day!-</t>
+    <t>service!-|varys!-</t>
   </si>
   <si>
     <t>kitchen!slow</t>
@@ -3979,19 +3943,19 @@
     <t>ambience!nice|lunch!best|conversation!ambience</t>
   </si>
   <si>
-    <t>river!-|weehawken!-|idea!-|top!-|view!-|chart!-|house!-</t>
+    <t>river!-|idea!-|top!-|view!-|chart!-|house!-</t>
   </si>
   <si>
     <t>dessert!incredible|lava!incredible|cake!incredible</t>
   </si>
   <si>
-    <t>bistro!small|path!small</t>
+    <t>|bistro!small|path!small</t>
   </si>
   <si>
     <t>restaurant!cozy</t>
   </si>
   <si>
-    <t>desserts!brilliant|soup!brilliant|food!average|onion!french|way!desserts</t>
+    <t>desserts!brilliant|soup!brilliant|food!average|way!desserts</t>
   </si>
   <si>
     <t>ambience!-|food!-|companion!-|trip!-|world!-</t>
@@ -4018,7 +3982,7 @@
     <t>shrimp!fried|wife!shrimp</t>
   </si>
   <si>
-    <t>signs!japanese|menus!japanese|food!menus|waitstaff!menus</t>
+    <t>|signs!japanese|menus!japanese|food!menus|waitstaff!menus</t>
   </si>
   <si>
     <t>leon!gem|fare!prepared|bistro!prepared|village!leon|specials!good|gem!fare|atmosphere!warm|hip!fare</t>
@@ -4048,16 +4012,16 @@
     <t>service!great</t>
   </si>
   <si>
-    <t>people!-|new!-|york!-</t>
-  </si>
-  <si>
-    <t>pizza!yummy</t>
+    <t>people!-</t>
+  </si>
+  <si>
+    <t>|pizza!yummy</t>
   </si>
   <si>
     <t>lunch!-|reviews!-</t>
   </si>
   <si>
-    <t>sauce!watery|flavor!much|food!flavor</t>
+    <t>|sauce!watery|flavor!much|food!flavor</t>
   </si>
   <si>
     <t>waitress!patient|food!phenomenal</t>
@@ -4069,7 +4033,7 @@
     <t>pizza!great|service!great</t>
   </si>
   <si>
-    <t>wait!small</t>
+    <t>|wait!small</t>
   </si>
   <si>
     <t>block!magnificent|end!magnificent</t>
@@ -4081,7 +4045,7 @@
     <t>terrace!enjoy|garden!enjoy</t>
   </si>
   <si>
-    <t>nights!warm|restaurant!warm|kitchen!open|part!open</t>
+    <t>restaurant!warm|kitchen!open|part!open</t>
   </si>
   <si>
     <t>setting!intimate|service!intimate|occasion!special</t>
@@ -4093,7 +4057,7 @@
     <t>lounge!attraction</t>
   </si>
   <si>
-    <t>restaurant!romantic|raga!romantic</t>
+    <t>restaurant!romantic</t>
   </si>
   <si>
     <t>staff!helpful</t>
@@ -4108,7 +4072,7 @@
     <t>server!helpful</t>
   </si>
   <si>
-    <t>atmosphere!wonderful|evening!cool|avenue!6th</t>
+    <t>atmosphere!wonderful|avenue!6th</t>
   </si>
   <si>
     <t>staff!nonsense</t>
@@ -4126,7 +4090,7 @@
     <t>decor!vibrant|boths!right|side!right|side!several|hall!right</t>
   </si>
   <si>
-    <t>time!first|band!time|atmosphere!band|jazz!live</t>
+    <t>|time!first|band!time|atmosphere!band|jazz!live</t>
   </si>
   <si>
     <t>server!cool</t>
@@ -4135,7 +4099,7 @@
     <t>laugh!good|bathrooms!hidden|decor!hidden</t>
   </si>
   <si>
-    <t>staff!professional</t>
+    <t>|staff!professional</t>
   </si>
   <si>
     <t>thing!good|service!good|restaurant!thing</t>
@@ -4213,7 +4177,7 @@
     <t>place!fun</t>
   </si>
   <si>
-    <t>staff!friendliest</t>
+    <t>|staff!friendliest</t>
   </si>
   <si>
     <t>place!-|lot!-|fun!-</t>
@@ -4225,28 +4189,28 @@
     <t>service!slow</t>
   </si>
   <si>
-    <t>service!quick</t>
+    <t>|service!quick</t>
   </si>
   <si>
     <t>delivery!-</t>
   </si>
   <si>
-    <t>zero!-|ambiance!-|boot!-</t>
+    <t>ambiance!-|boot!-</t>
   </si>
   <si>
     <t>ambience!nice|service!great</t>
   </si>
   <si>
-    <t>nothing!special|atmosphere!special|establishment!nothing</t>
-  </si>
-  <si>
-    <t>owner!japanese|staff!japanese</t>
+    <t>|nothing!special|atmosphere!special|establishment!nothing</t>
+  </si>
+  <si>
+    <t>|owner!japanese|staff!japanese</t>
   </si>
   <si>
     <t>trattoria!top|top!quaint</t>
   </si>
   <si>
-    <t>room!back|secret!back</t>
+    <t>|room!back|secret!back</t>
   </si>
   <si>
     <t>service!excellent</t>
@@ -4288,7 +4252,7 @@
     <t>restaurant!cramped</t>
   </si>
   <si>
-    <t>bar!nice|cigar!nice|staff!great|patroon!bar</t>
+    <t>bar!nice|cigar!nice|staff!great</t>
   </si>
   <si>
     <t>waitstaff!friendly</t>
@@ -4297,7 +4261,7 @@
     <t>service!good|ambience!good|date!service|outing!date|group!date</t>
   </si>
   <si>
-    <t>occassion!special|sort!special|candle!occassion</t>
+    <t>|occassion!special|sort!special|candle!occassion</t>
   </si>
   <si>
     <t>waiter!attentive|mark!attentive</t>
@@ -4306,7 +4270,7 @@
     <t>atmosphere!great|hesititate!hate</t>
   </si>
   <si>
-    <t>town!little</t>
+    <t>|town!little</t>
   </si>
   <si>
     <t>cafe!-|noir!-|dont!-|jsut!-|people!-</t>
@@ -4318,7 +4282,7 @@
     <t>waitress!-</t>
   </si>
   <si>
-    <t>things!work|thing!only|tips!only|america!things</t>
+    <t>things!work|thing!only|tips!only</t>
   </si>
   <si>
     <t>tip!-|model/waitress!-|manager!-</t>
@@ -4330,7 +4294,7 @@
     <t>decor!charming</t>
   </si>
   <si>
-    <t>experience!worst|customer!worst|service!worst|weeks!experience|restaurant!worst</t>
+    <t>experience!worst|customer!worst|service!worst|restaurant!worst</t>
   </si>
   <si>
     <t>gentleman!-|manager!-|table!-|smile!-|order!-</t>
@@ -4345,13 +4309,13 @@
     <t>staff!nice|bathroom!unisex</t>
   </si>
   <si>
-    <t>patrons!last|time!last|closing!patrons</t>
+    <t>|patrons!last|time!last|closing!patrons</t>
   </si>
   <si>
     <t>staff!friendly|company!enjoy|meal!enjoy</t>
   </si>
   <si>
-    <t>patio!back</t>
+    <t>|patio!back</t>
   </si>
   <si>
     <t>service!slow|bit!service</t>
@@ -4387,13 +4351,13 @@
     <t>place!great</t>
   </si>
   <si>
-    <t>murray!-|anything!-|service!-</t>
+    <t>anything!-|service!-</t>
   </si>
   <si>
     <t>service!awful</t>
   </si>
   <si>
-    <t>sandwich!open|cheese!open|manager!sandwich</t>
+    <t>|sandwich!open|cheese!open|manager!sandwich</t>
   </si>
   <si>
     <t>location!perfect</t>
@@ -4405,7 +4369,7 @@
     <t>atmoshere!great|bit!great</t>
   </si>
   <si>
-    <t>crew!best|winnie!best|staff!winnie|staff!crew</t>
+    <t>crew!best|staff!winnie|staff!crew</t>
   </si>
   <si>
     <t>place!quiet</t>
@@ -4414,22 +4378,22 @@
     <t>staff!pleasant|wait!pleasant|part!most|beautification!wonderful|fun!staff|way!wonderful|way!wonderful</t>
   </si>
   <si>
-    <t>part!best|atmosphere!best|ls!best|bts!atmosphere|night!late</t>
-  </si>
-  <si>
-    <t>taste!good|music!good|dj!taste|lady!in-house|nights!in-house</t>
-  </si>
-  <si>
-    <t>feature!great|terrace!great|suan!great</t>
-  </si>
-  <si>
-    <t>staff!friendlier</t>
-  </si>
-  <si>
-    <t>setting!casual</t>
-  </si>
-  <si>
-    <t>sum!dim|atmosphere!dim|wait!long|gig!typical|alternative!wait|tables!like|chinatown!sleek</t>
+    <t>part!best|atmosphere!best|ls!best|bts!atmosphere</t>
+  </si>
+  <si>
+    <t>taste!good|music!good|dj!taste|lady!in-house</t>
+  </si>
+  <si>
+    <t>feature!great|terrace!great</t>
+  </si>
+  <si>
+    <t>|staff!friendlier</t>
+  </si>
+  <si>
+    <t>|setting!casual</t>
+  </si>
+  <si>
+    <t>sum!dim|atmosphere!dim|wait!long|gig!typical|alternative!wait|tables!like</t>
   </si>
   <si>
     <t>service!friendly|atmosphere!casual</t>
@@ -4447,7 +4411,7 @@
     <t>place!beautiful</t>
   </si>
   <si>
-    <t>restaurant!typical|nyc!typical|gimmick!typical|theme!typical</t>
+    <t>|restaurant!typical|nyc!typical|gimmick!typical|theme!typical</t>
   </si>
   <si>
     <t>atomosphere!cozy|tables!cozy</t>
@@ -4456,16 +4420,16 @@
     <t>ceiling!spectacular|room!main|dining!main</t>
   </si>
   <si>
-    <t>patio!gigantic</t>
-  </si>
-  <si>
-    <t>months!warmer|seating!warmer|winter!outdoor</t>
+    <t>|patio!gigantic</t>
+  </si>
+  <si>
+    <t>seating!warmer</t>
   </si>
   <si>
     <t>design!good|atmosphere!good</t>
   </si>
   <si>
-    <t>opera!italian|everything!italian|jukebox!everything|strokes!jukebox</t>
+    <t>|opera!italian|everything!italian|jukebox!everything|strokes!jukebox</t>
   </si>
   <si>
     <t>space!attractive|redone!attractive</t>
@@ -4477,7 +4441,7 @@
     <t>indoor!-</t>
   </si>
   <si>
-    <t>decor!simple</t>
+    <t>|decor!simple</t>
   </si>
   <si>
     <t>jazz!-|duo!-|point!-</t>
@@ -4489,25 +4453,25 @@
     <t>scene!love|character!nice|light!nice|place!character</t>
   </si>
   <si>
-    <t>atmosphere!love|paris!atmosphere</t>
-  </si>
-  <si>
-    <t>restaurant!warm|city!new|friend!city</t>
+    <t>atmosphere!love</t>
+  </si>
+  <si>
+    <t>restaurant!warm|friend!city</t>
   </si>
   <si>
     <t>space!-|kind!-|alice!-|wonderland!-|setting!-</t>
   </si>
   <si>
-    <t>place!hidden|bit!place</t>
-  </si>
-  <si>
-    <t>something!-|atmosphere!-|week!-</t>
+    <t>|place!hidden|bit!place</t>
+  </si>
+  <si>
+    <t>something!-|atmosphere!-</t>
   </si>
   <si>
     <t>restaurant!nice</t>
   </si>
   <si>
-    <t>area!nice|garden!nice|months!area</t>
+    <t>area!nice|garden!nice</t>
   </si>
   <si>
     <t>place!recommend</t>
@@ -4516,7 +4480,7 @@
     <t>view!nice|river!nice|nyc!river</t>
   </si>
   <si>
-    <t>restaurant!dreamy</t>
+    <t>|restaurant!dreamy</t>
   </si>
   <si>
     <t>hookah!-</t>
@@ -4531,7 +4495,7 @@
     <t>seating!great</t>
   </si>
   <si>
-    <t>boths!small</t>
+    <t>|boths!small</t>
   </si>
   <si>
     <t>belly!-|dancing!-|crowd!-</t>
@@ -5046,10 +5010,10 @@
         <v>1041</v>
       </c>
       <c r="G2" t="s">
-        <v>1166</v>
+        <v>1154</v>
       </c>
       <c r="H2" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5072,10 +5036,10 @@
         <v>990</v>
       </c>
       <c r="G3" t="s">
-        <v>1167</v>
+        <v>1155</v>
       </c>
       <c r="H3" t="s">
-        <v>1509</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5098,10 +5062,10 @@
         <v>1042</v>
       </c>
       <c r="G4" t="s">
-        <v>1168</v>
+        <v>1156</v>
       </c>
       <c r="H4" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5124,10 +5088,10 @@
         <v>1043</v>
       </c>
       <c r="G5" t="s">
-        <v>1169</v>
+        <v>1157</v>
       </c>
       <c r="H5" t="s">
-        <v>1509</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5150,10 +5114,10 @@
         <v>1021</v>
       </c>
       <c r="G6" t="s">
-        <v>1170</v>
+        <v>1158</v>
       </c>
       <c r="H6" t="s">
-        <v>1509</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5176,10 +5140,10 @@
         <v>1044</v>
       </c>
       <c r="G7" t="s">
-        <v>1171</v>
+        <v>1159</v>
       </c>
       <c r="H7" t="s">
-        <v>1509</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5202,10 +5166,10 @@
         <v>1021</v>
       </c>
       <c r="G8" t="s">
-        <v>1172</v>
+        <v>1160</v>
       </c>
       <c r="H8" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5228,10 +5192,10 @@
         <v>1045</v>
       </c>
       <c r="G9" t="s">
-        <v>1173</v>
+        <v>1161</v>
       </c>
       <c r="H9" t="s">
-        <v>1511</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5254,10 +5218,10 @@
         <v>1046</v>
       </c>
       <c r="G10" t="s">
-        <v>1174</v>
+        <v>1162</v>
       </c>
       <c r="H10" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5280,10 +5244,10 @@
         <v>1021</v>
       </c>
       <c r="G11" t="s">
-        <v>1175</v>
+        <v>1163</v>
       </c>
       <c r="H11" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5306,10 +5270,10 @@
         <v>1026</v>
       </c>
       <c r="G12" t="s">
-        <v>1176</v>
+        <v>1164</v>
       </c>
       <c r="H12" t="s">
-        <v>1511</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -5332,10 +5296,10 @@
         <v>1047</v>
       </c>
       <c r="G13" t="s">
-        <v>1177</v>
+        <v>1165</v>
       </c>
       <c r="H13" t="s">
-        <v>1509</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -5358,10 +5322,10 @@
         <v>1021</v>
       </c>
       <c r="G14" t="s">
-        <v>1178</v>
+        <v>1166</v>
       </c>
       <c r="H14" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -5384,10 +5348,10 @@
         <v>1021</v>
       </c>
       <c r="G15" t="s">
-        <v>1179</v>
+        <v>1167</v>
       </c>
       <c r="H15" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -5410,10 +5374,10 @@
         <v>1048</v>
       </c>
       <c r="G16" t="s">
-        <v>1180</v>
+        <v>1168</v>
       </c>
       <c r="H16" t="s">
-        <v>1509</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -5436,10 +5400,10 @@
         <v>1049</v>
       </c>
       <c r="G17" t="s">
-        <v>1181</v>
+        <v>1169</v>
       </c>
       <c r="H17" t="s">
-        <v>1513</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -5462,10 +5426,10 @@
         <v>1021</v>
       </c>
       <c r="G18" t="s">
-        <v>1182</v>
+        <v>1170</v>
       </c>
       <c r="H18" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -5488,10 +5452,10 @@
         <v>1050</v>
       </c>
       <c r="G19" t="s">
-        <v>1183</v>
+        <v>1171</v>
       </c>
       <c r="H19" t="s">
-        <v>1509</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -5514,10 +5478,10 @@
         <v>1048</v>
       </c>
       <c r="G20" t="s">
-        <v>1184</v>
+        <v>1172</v>
       </c>
       <c r="H20" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -5540,10 +5504,10 @@
         <v>1051</v>
       </c>
       <c r="G21" t="s">
-        <v>1185</v>
+        <v>1173</v>
       </c>
       <c r="H21" t="s">
-        <v>1514</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -5566,10 +5530,10 @@
         <v>990</v>
       </c>
       <c r="G22" t="s">
-        <v>1186</v>
+        <v>1174</v>
       </c>
       <c r="H22" t="s">
-        <v>1514</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -5589,7 +5553,7 @@
         <v>992</v>
       </c>
       <c r="H23" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -5612,10 +5576,10 @@
         <v>1048</v>
       </c>
       <c r="G24" t="s">
-        <v>1187</v>
+        <v>1175</v>
       </c>
       <c r="H24" t="s">
-        <v>1515</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -5638,10 +5602,10 @@
         <v>1021</v>
       </c>
       <c r="G25" t="s">
-        <v>1188</v>
+        <v>1176</v>
       </c>
       <c r="H25" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -5664,10 +5628,10 @@
         <v>1052</v>
       </c>
       <c r="G26" t="s">
-        <v>1189</v>
+        <v>1177</v>
       </c>
       <c r="H26" t="s">
-        <v>1516</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -5690,10 +5654,10 @@
         <v>1046</v>
       </c>
       <c r="G27" t="s">
-        <v>1190</v>
+        <v>1178</v>
       </c>
       <c r="H27" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -5716,10 +5680,10 @@
         <v>1045</v>
       </c>
       <c r="G28" t="s">
-        <v>1191</v>
+        <v>1179</v>
       </c>
       <c r="H28" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -5742,10 +5706,10 @@
         <v>1053</v>
       </c>
       <c r="G29" t="s">
-        <v>1192</v>
+        <v>1180</v>
       </c>
       <c r="H29" t="s">
-        <v>1509</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -5765,13 +5729,13 @@
         <v>1000</v>
       </c>
       <c r="F30" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="G30" t="s">
-        <v>1193</v>
+        <v>1181</v>
       </c>
       <c r="H30" t="s">
-        <v>1514</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -5791,13 +5755,13 @@
         <v>1001</v>
       </c>
       <c r="F31" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="G31" t="s">
-        <v>1194</v>
+        <v>1182</v>
       </c>
       <c r="H31" t="s">
-        <v>1509</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -5817,13 +5781,13 @@
         <v>994</v>
       </c>
       <c r="F32" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="G32" t="s">
-        <v>1195</v>
+        <v>1183</v>
       </c>
       <c r="H32" t="s">
-        <v>1517</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -5846,10 +5810,10 @@
         <v>1021</v>
       </c>
       <c r="G33" t="s">
-        <v>1196</v>
+        <v>1184</v>
       </c>
       <c r="H33" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -5872,10 +5836,10 @@
         <v>990</v>
       </c>
       <c r="G34" t="s">
-        <v>1197</v>
+        <v>1185</v>
       </c>
       <c r="H34" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -5898,10 +5862,10 @@
         <v>1048</v>
       </c>
       <c r="G35" t="s">
-        <v>1198</v>
+        <v>1186</v>
       </c>
       <c r="H35" t="s">
-        <v>1509</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -5921,13 +5885,13 @@
         <v>987</v>
       </c>
       <c r="F36" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G36" t="s">
-        <v>1199</v>
+        <v>1187</v>
       </c>
       <c r="H36" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -5950,10 +5914,10 @@
         <v>990</v>
       </c>
       <c r="G37" t="s">
-        <v>1200</v>
+        <v>1188</v>
       </c>
       <c r="H37" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -5973,13 +5937,13 @@
         <v>990</v>
       </c>
       <c r="F38" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G38" t="s">
-        <v>1201</v>
+        <v>1189</v>
       </c>
       <c r="H38" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6002,10 +5966,10 @@
         <v>1045</v>
       </c>
       <c r="G39" t="s">
-        <v>1202</v>
+        <v>1190</v>
       </c>
       <c r="H39" t="s">
-        <v>1513</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6025,13 +5989,13 @@
         <v>989</v>
       </c>
       <c r="F40" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G40" t="s">
-        <v>1203</v>
+        <v>1191</v>
       </c>
       <c r="H40" t="s">
-        <v>1518</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6051,13 +6015,13 @@
         <v>993</v>
       </c>
       <c r="F41" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G41" t="s">
-        <v>1204</v>
+        <v>1192</v>
       </c>
       <c r="H41" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6077,13 +6041,13 @@
         <v>989</v>
       </c>
       <c r="F42" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="G42" t="s">
-        <v>1205</v>
+        <v>1193</v>
       </c>
       <c r="H42" t="s">
-        <v>1509</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6103,13 +6067,13 @@
         <v>987</v>
       </c>
       <c r="F43" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="G43" t="s">
-        <v>1206</v>
+        <v>1194</v>
       </c>
       <c r="H43" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6129,13 +6093,13 @@
         <v>1002</v>
       </c>
       <c r="F44" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="G44" t="s">
-        <v>1207</v>
+        <v>1195</v>
       </c>
       <c r="H44" t="s">
-        <v>1509</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -6155,13 +6119,13 @@
         <v>1003</v>
       </c>
       <c r="F45" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="G45" t="s">
-        <v>1208</v>
+        <v>1196</v>
       </c>
       <c r="H45" t="s">
-        <v>1509</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -6184,10 +6148,10 @@
         <v>1021</v>
       </c>
       <c r="G46" t="s">
-        <v>1209</v>
+        <v>1197</v>
       </c>
       <c r="H46" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -6207,13 +6171,13 @@
         <v>990</v>
       </c>
       <c r="F47" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="G47" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="H47" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -6233,13 +6197,13 @@
         <v>987</v>
       </c>
       <c r="F48" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="G48" t="s">
-        <v>1211</v>
+        <v>1199</v>
       </c>
       <c r="H48" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -6262,10 +6226,10 @@
         <v>1021</v>
       </c>
       <c r="G49" t="s">
-        <v>1212</v>
+        <v>1200</v>
       </c>
       <c r="H49" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -6288,10 +6252,10 @@
         <v>1021</v>
       </c>
       <c r="G50" t="s">
-        <v>1213</v>
+        <v>1201</v>
       </c>
       <c r="H50" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -6314,10 +6278,10 @@
         <v>1021</v>
       </c>
       <c r="G51" t="s">
-        <v>1214</v>
+        <v>1202</v>
       </c>
       <c r="H51" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -6337,13 +6301,13 @@
         <v>990</v>
       </c>
       <c r="F52" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="G52" t="s">
-        <v>1215</v>
+        <v>1203</v>
       </c>
       <c r="H52" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -6366,10 +6330,10 @@
         <v>1021</v>
       </c>
       <c r="G53" t="s">
-        <v>1209</v>
+        <v>1197</v>
       </c>
       <c r="H53" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -6389,13 +6353,13 @@
         <v>998</v>
       </c>
       <c r="F54" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G54" t="s">
-        <v>1216</v>
+        <v>1204</v>
       </c>
       <c r="H54" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -6418,10 +6382,10 @@
         <v>1045</v>
       </c>
       <c r="G55" t="s">
-        <v>1217</v>
+        <v>1205</v>
       </c>
       <c r="H55" t="s">
-        <v>1519</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -6441,13 +6405,13 @@
         <v>1005</v>
       </c>
       <c r="F56" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G56" t="s">
-        <v>1218</v>
+        <v>1206</v>
       </c>
       <c r="H56" t="s">
-        <v>1520</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -6467,13 +6431,13 @@
         <v>992</v>
       </c>
       <c r="F57" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G57" t="s">
-        <v>1219</v>
+        <v>1207</v>
       </c>
       <c r="H57" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -6496,10 +6460,10 @@
         <v>1045</v>
       </c>
       <c r="G58" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="H58" t="s">
-        <v>1521</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -6519,13 +6483,13 @@
         <v>992</v>
       </c>
       <c r="F59" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="G59" t="s">
-        <v>1221</v>
+        <v>1209</v>
       </c>
       <c r="H59" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -6545,13 +6509,13 @@
         <v>1000</v>
       </c>
       <c r="F60" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="G60" t="s">
-        <v>1222</v>
+        <v>1210</v>
       </c>
       <c r="H60" t="s">
-        <v>1522</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -6571,13 +6535,13 @@
         <v>1006</v>
       </c>
       <c r="F61" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G61" t="s">
-        <v>1223</v>
+        <v>1211</v>
       </c>
       <c r="H61" t="s">
-        <v>1509</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -6597,13 +6561,13 @@
         <v>987</v>
       </c>
       <c r="F62" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G62" t="s">
-        <v>1224</v>
+        <v>1212</v>
       </c>
       <c r="H62" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -6623,13 +6587,13 @@
         <v>987</v>
       </c>
       <c r="F63" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="G63" t="s">
-        <v>1206</v>
+        <v>1194</v>
       </c>
       <c r="H63" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -6649,13 +6613,13 @@
         <v>1004</v>
       </c>
       <c r="F64" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="G64" t="s">
-        <v>1225</v>
+        <v>1213</v>
       </c>
       <c r="H64" t="s">
-        <v>1511</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -6675,13 +6639,13 @@
         <v>1007</v>
       </c>
       <c r="F65" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="G65" t="s">
-        <v>1226</v>
+        <v>1214</v>
       </c>
       <c r="H65" t="s">
-        <v>1523</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -6701,13 +6665,13 @@
         <v>987</v>
       </c>
       <c r="F66" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="G66" t="s">
-        <v>1227</v>
+        <v>1215</v>
       </c>
       <c r="H66" t="s">
-        <v>1509</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -6727,13 +6691,13 @@
         <v>989</v>
       </c>
       <c r="F67" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="G67" t="s">
-        <v>1228</v>
+        <v>1216</v>
       </c>
       <c r="H67" t="s">
-        <v>1509</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -6753,13 +6717,13 @@
         <v>987</v>
       </c>
       <c r="F68" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="G68" t="s">
-        <v>1229</v>
+        <v>1217</v>
       </c>
       <c r="H68" t="s">
-        <v>1513</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -6782,10 +6746,10 @@
         <v>1046</v>
       </c>
       <c r="G69" t="s">
-        <v>1230</v>
+        <v>1218</v>
       </c>
       <c r="H69" t="s">
-        <v>1524</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -6808,10 +6772,10 @@
         <v>1026</v>
       </c>
       <c r="G70" t="s">
-        <v>1231</v>
+        <v>1219</v>
       </c>
       <c r="H70" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -6834,10 +6798,10 @@
         <v>1021</v>
       </c>
       <c r="G71" t="s">
-        <v>1232</v>
+        <v>1220</v>
       </c>
       <c r="H71" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -6860,10 +6824,10 @@
         <v>1048</v>
       </c>
       <c r="G72" t="s">
-        <v>1233</v>
+        <v>1221</v>
       </c>
       <c r="H72" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -6886,10 +6850,10 @@
         <v>1045</v>
       </c>
       <c r="G73" t="s">
-        <v>1234</v>
+        <v>1222</v>
       </c>
       <c r="H73" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -6912,10 +6876,10 @@
         <v>1045</v>
       </c>
       <c r="G74" t="s">
-        <v>1235</v>
+        <v>1223</v>
       </c>
       <c r="H74" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -6935,13 +6899,13 @@
         <v>987</v>
       </c>
       <c r="F75" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="G75" t="s">
-        <v>1236</v>
+        <v>1224</v>
       </c>
       <c r="H75" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -6961,13 +6925,13 @@
         <v>1008</v>
       </c>
       <c r="F76" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="G76" t="s">
-        <v>1237</v>
+        <v>1225</v>
       </c>
       <c r="H76" t="s">
-        <v>1514</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -6987,13 +6951,13 @@
         <v>1004</v>
       </c>
       <c r="F77" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="G77" t="s">
-        <v>1238</v>
+        <v>1226</v>
       </c>
       <c r="H77" t="s">
-        <v>1526</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7013,13 +6977,13 @@
         <v>1009</v>
       </c>
       <c r="F78" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="G78" t="s">
-        <v>1239</v>
+        <v>1227</v>
       </c>
       <c r="H78" t="s">
-        <v>1527</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7039,13 +7003,13 @@
         <v>1010</v>
       </c>
       <c r="F79" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="G79" t="s">
-        <v>1240</v>
+        <v>1228</v>
       </c>
       <c r="H79" t="s">
-        <v>1528</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7065,13 +7029,13 @@
         <v>1011</v>
       </c>
       <c r="F80" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="G80" t="s">
-        <v>1241</v>
+        <v>1229</v>
       </c>
       <c r="H80" t="s">
-        <v>1526</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -7091,13 +7055,13 @@
         <v>987</v>
       </c>
       <c r="F81" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="G81" t="s">
-        <v>1242</v>
+        <v>1230</v>
       </c>
       <c r="H81" t="s">
-        <v>1529</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -7117,13 +7081,13 @@
         <v>1007</v>
       </c>
       <c r="F82" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="G82" t="s">
-        <v>1243</v>
+        <v>1231</v>
       </c>
       <c r="H82" t="s">
-        <v>1509</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -7146,10 +7110,10 @@
         <v>1021</v>
       </c>
       <c r="G83" t="s">
-        <v>1244</v>
+        <v>1232</v>
       </c>
       <c r="H83" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -7172,10 +7136,10 @@
         <v>1048</v>
       </c>
       <c r="G84" t="s">
-        <v>1245</v>
+        <v>1233</v>
       </c>
       <c r="H84" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -7198,10 +7162,10 @@
         <v>1021</v>
       </c>
       <c r="G85" t="s">
-        <v>1246</v>
+        <v>1234</v>
       </c>
       <c r="H85" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -7224,10 +7188,10 @@
         <v>1045</v>
       </c>
       <c r="G86" t="s">
-        <v>1247</v>
+        <v>1235</v>
       </c>
       <c r="H86" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -7247,13 +7211,13 @@
         <v>990</v>
       </c>
       <c r="F87" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="G87" t="s">
-        <v>1248</v>
+        <v>1236</v>
       </c>
       <c r="H87" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -7273,13 +7237,13 @@
         <v>993</v>
       </c>
       <c r="F88" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G88" t="s">
-        <v>1249</v>
+        <v>1237</v>
       </c>
       <c r="H88" t="s">
-        <v>1530</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -7299,7 +7263,7 @@
         <v>990</v>
       </c>
       <c r="H89" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -7319,13 +7283,13 @@
         <v>990</v>
       </c>
       <c r="F90" t="s">
-        <v>1085</v>
+        <v>1046</v>
       </c>
       <c r="G90" t="s">
-        <v>1250</v>
+        <v>1238</v>
       </c>
       <c r="H90" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -7348,10 +7312,10 @@
         <v>1048</v>
       </c>
       <c r="G91" t="s">
-        <v>1251</v>
+        <v>1239</v>
       </c>
       <c r="H91" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -7374,10 +7338,10 @@
         <v>1046</v>
       </c>
       <c r="G92" t="s">
-        <v>1252</v>
+        <v>1240</v>
       </c>
       <c r="H92" t="s">
-        <v>1509</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -7397,13 +7361,13 @@
         <v>990</v>
       </c>
       <c r="F93" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="G93" t="s">
-        <v>1253</v>
+        <v>1241</v>
       </c>
       <c r="H93" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -7423,13 +7387,13 @@
         <v>1006</v>
       </c>
       <c r="F94" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="G94" t="s">
-        <v>1254</v>
+        <v>1242</v>
       </c>
       <c r="H94" t="s">
-        <v>1531</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -7449,13 +7413,13 @@
         <v>996</v>
       </c>
       <c r="F95" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G95" t="s">
-        <v>1255</v>
+        <v>1243</v>
       </c>
       <c r="H95" t="s">
-        <v>1532</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -7475,13 +7439,13 @@
         <v>1012</v>
       </c>
       <c r="F96" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="G96" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="H96" t="s">
-        <v>1533</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -7504,10 +7468,10 @@
         <v>1048</v>
       </c>
       <c r="G97" t="s">
-        <v>1257</v>
+        <v>1245</v>
       </c>
       <c r="H97" t="s">
-        <v>1515</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -7530,10 +7494,10 @@
         <v>1049</v>
       </c>
       <c r="G98" t="s">
-        <v>1258</v>
+        <v>1246</v>
       </c>
       <c r="H98" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -7553,13 +7517,13 @@
         <v>990</v>
       </c>
       <c r="F99" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="G99" t="s">
-        <v>1259</v>
+        <v>1247</v>
       </c>
       <c r="H99" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -7582,10 +7546,10 @@
         <v>1021</v>
       </c>
       <c r="G100" t="s">
-        <v>1260</v>
+        <v>1248</v>
       </c>
       <c r="H100" t="s">
-        <v>1509</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -7605,13 +7569,13 @@
         <v>1012</v>
       </c>
       <c r="F101" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="G101" t="s">
-        <v>1261</v>
+        <v>1249</v>
       </c>
       <c r="H101" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -7634,10 +7598,10 @@
         <v>1021</v>
       </c>
       <c r="G102" t="s">
-        <v>1262</v>
+        <v>1250</v>
       </c>
       <c r="H102" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -7660,10 +7624,10 @@
         <v>1048</v>
       </c>
       <c r="G103" t="s">
-        <v>1263</v>
+        <v>1251</v>
       </c>
       <c r="H103" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -7683,13 +7647,13 @@
         <v>992</v>
       </c>
       <c r="F104" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="G104" t="s">
-        <v>1264</v>
+        <v>1252</v>
       </c>
       <c r="H104" t="s">
-        <v>1534</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -7712,10 +7676,10 @@
         <v>1026</v>
       </c>
       <c r="G105" t="s">
-        <v>1265</v>
+        <v>1253</v>
       </c>
       <c r="H105" t="s">
-        <v>1513</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -7738,10 +7702,10 @@
         <v>1021</v>
       </c>
       <c r="G106" t="s">
-        <v>1266</v>
+        <v>1254</v>
       </c>
       <c r="H106" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -7761,13 +7725,13 @@
         <v>990</v>
       </c>
       <c r="F107" t="s">
-        <v>1085</v>
+        <v>1046</v>
       </c>
       <c r="G107" t="s">
-        <v>1267</v>
+        <v>1255</v>
       </c>
       <c r="H107" t="s">
-        <v>1524</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -7790,10 +7754,10 @@
         <v>1019</v>
       </c>
       <c r="G108" t="s">
-        <v>1268</v>
+        <v>1256</v>
       </c>
       <c r="H108" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -7813,13 +7777,13 @@
         <v>990</v>
       </c>
       <c r="F109" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="G109" t="s">
-        <v>1269</v>
+        <v>1257</v>
       </c>
       <c r="H109" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -7842,10 +7806,10 @@
         <v>1021</v>
       </c>
       <c r="G110" t="s">
-        <v>1270</v>
+        <v>1258</v>
       </c>
       <c r="H110" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -7868,10 +7832,10 @@
         <v>1021</v>
       </c>
       <c r="G111" t="s">
-        <v>1271</v>
+        <v>1259</v>
       </c>
       <c r="H111" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -7891,13 +7855,13 @@
         <v>987</v>
       </c>
       <c r="F112" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="G112" t="s">
-        <v>1272</v>
+        <v>1260</v>
       </c>
       <c r="H112" t="s">
-        <v>1526</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -7917,13 +7881,13 @@
         <v>987</v>
       </c>
       <c r="F113" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G113" t="s">
-        <v>1273</v>
+        <v>1261</v>
       </c>
       <c r="H113" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -7946,10 +7910,10 @@
         <v>990</v>
       </c>
       <c r="G114" t="s">
-        <v>1274</v>
+        <v>1262</v>
       </c>
       <c r="H114" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -7969,13 +7933,13 @@
         <v>987</v>
       </c>
       <c r="F115" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="G115" t="s">
-        <v>1275</v>
+        <v>1263</v>
       </c>
       <c r="H115" t="s">
-        <v>1513</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -7995,13 +7959,13 @@
         <v>1014</v>
       </c>
       <c r="F116" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="G116" t="s">
-        <v>1276</v>
+        <v>1264</v>
       </c>
       <c r="H116" t="s">
-        <v>1535</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8021,13 +7985,13 @@
         <v>987</v>
       </c>
       <c r="F117" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="G117" t="s">
-        <v>1277</v>
+        <v>1265</v>
       </c>
       <c r="H117" t="s">
-        <v>1513</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8050,10 +8014,10 @@
         <v>1048</v>
       </c>
       <c r="G118" t="s">
-        <v>1278</v>
+        <v>1266</v>
       </c>
       <c r="H118" t="s">
-        <v>1521</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8073,13 +8037,13 @@
         <v>990</v>
       </c>
       <c r="F119" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="G119" t="s">
-        <v>1279</v>
+        <v>1267</v>
       </c>
       <c r="H119" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -8099,13 +8063,13 @@
         <v>1004</v>
       </c>
       <c r="F120" t="s">
-        <v>1094</v>
+        <v>1049</v>
       </c>
       <c r="G120" t="s">
-        <v>1280</v>
+        <v>1268</v>
       </c>
       <c r="H120" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -8125,13 +8089,13 @@
         <v>990</v>
       </c>
       <c r="F121" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="G121" t="s">
-        <v>1281</v>
+        <v>1269</v>
       </c>
       <c r="H121" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -8154,10 +8118,10 @@
         <v>1019</v>
       </c>
       <c r="G122" t="s">
-        <v>1282</v>
+        <v>1270</v>
       </c>
       <c r="H122" t="s">
-        <v>1528</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -8177,13 +8141,13 @@
         <v>1016</v>
       </c>
       <c r="F123" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="G123" t="s">
-        <v>1283</v>
+        <v>1271</v>
       </c>
       <c r="H123" t="s">
-        <v>1520</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -8206,10 +8170,10 @@
         <v>1045</v>
       </c>
       <c r="G124" t="s">
-        <v>1284</v>
+        <v>1272</v>
       </c>
       <c r="H124" t="s">
-        <v>1536</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -8229,13 +8193,13 @@
         <v>987</v>
       </c>
       <c r="F125" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="G125" t="s">
-        <v>1285</v>
+        <v>1273</v>
       </c>
       <c r="H125" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -8258,10 +8222,10 @@
         <v>1021</v>
       </c>
       <c r="G126" t="s">
-        <v>1286</v>
+        <v>1274</v>
       </c>
       <c r="H126" t="s">
-        <v>1537</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -8281,10 +8245,10 @@
         <v>990</v>
       </c>
       <c r="G127" t="s">
-        <v>1287</v>
+        <v>1275</v>
       </c>
       <c r="H127" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -8307,10 +8271,10 @@
         <v>1019</v>
       </c>
       <c r="G128" t="s">
-        <v>1288</v>
+        <v>1276</v>
       </c>
       <c r="H128" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -8330,13 +8294,13 @@
         <v>1004</v>
       </c>
       <c r="F129" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="G129" t="s">
-        <v>1289</v>
+        <v>1277</v>
       </c>
       <c r="H129" t="s">
-        <v>1521</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -8356,13 +8320,13 @@
         <v>993</v>
       </c>
       <c r="F130" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="G130" t="s">
-        <v>1290</v>
+        <v>1278</v>
       </c>
       <c r="H130" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -8385,10 +8349,10 @@
         <v>1021</v>
       </c>
       <c r="G131" t="s">
-        <v>1291</v>
+        <v>1279</v>
       </c>
       <c r="H131" t="s">
-        <v>1526</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -8411,10 +8375,10 @@
         <v>1026</v>
       </c>
       <c r="G132" t="s">
-        <v>1292</v>
+        <v>1280</v>
       </c>
       <c r="H132" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -8437,10 +8401,10 @@
         <v>1048</v>
       </c>
       <c r="G133" t="s">
-        <v>1293</v>
+        <v>1281</v>
       </c>
       <c r="H133" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -8463,10 +8427,10 @@
         <v>1046</v>
       </c>
       <c r="G134" t="s">
-        <v>1294</v>
+        <v>1282</v>
       </c>
       <c r="H134" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -8489,10 +8453,10 @@
         <v>1048</v>
       </c>
       <c r="G135" t="s">
-        <v>1295</v>
+        <v>1283</v>
       </c>
       <c r="H135" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -8512,13 +8476,13 @@
         <v>1019</v>
       </c>
       <c r="F136" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="G136" t="s">
-        <v>1296</v>
+        <v>1284</v>
       </c>
       <c r="H136" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -8538,13 +8502,13 @@
         <v>1020</v>
       </c>
       <c r="F137" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="G137" t="s">
-        <v>1297</v>
+        <v>1285</v>
       </c>
       <c r="H137" t="s">
-        <v>1526</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -8564,13 +8528,13 @@
         <v>1022</v>
       </c>
       <c r="F138" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="G138" t="s">
-        <v>1298</v>
+        <v>1286</v>
       </c>
       <c r="H138" t="s">
-        <v>1509</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -8593,10 +8557,10 @@
         <v>1019</v>
       </c>
       <c r="G139" t="s">
-        <v>1299</v>
+        <v>1287</v>
       </c>
       <c r="H139" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -8616,13 +8580,13 @@
         <v>1023</v>
       </c>
       <c r="F140" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="G140" t="s">
-        <v>1300</v>
+        <v>1288</v>
       </c>
       <c r="H140" t="s">
-        <v>1526</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -8642,13 +8606,13 @@
         <v>1021</v>
       </c>
       <c r="F141" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G141" t="s">
-        <v>1301</v>
+        <v>1289</v>
       </c>
       <c r="H141" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -8671,10 +8635,10 @@
         <v>1046</v>
       </c>
       <c r="G142" t="s">
-        <v>1302</v>
+        <v>1290</v>
       </c>
       <c r="H142" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -8694,13 +8658,13 @@
         <v>1024</v>
       </c>
       <c r="F143" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="G143" t="s">
-        <v>1303</v>
+        <v>1291</v>
       </c>
       <c r="H143" t="s">
-        <v>1517</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -8720,13 +8684,13 @@
         <v>1025</v>
       </c>
       <c r="F144" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="G144" t="s">
-        <v>1304</v>
+        <v>1292</v>
       </c>
       <c r="H144" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -8746,13 +8710,13 @@
         <v>1020</v>
       </c>
       <c r="F145" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="G145" t="s">
-        <v>1305</v>
+        <v>1293</v>
       </c>
       <c r="H145" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -8772,13 +8736,13 @@
         <v>1019</v>
       </c>
       <c r="F146" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="G146" t="s">
-        <v>1306</v>
+        <v>1294</v>
       </c>
       <c r="H146" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -8798,7 +8762,7 @@
         <v>1021</v>
       </c>
       <c r="H147" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -8821,10 +8785,10 @@
         <v>1019</v>
       </c>
       <c r="G148" t="s">
-        <v>1307</v>
+        <v>1295</v>
       </c>
       <c r="H148" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -8847,10 +8811,10 @@
         <v>1026</v>
       </c>
       <c r="G149" t="s">
-        <v>1308</v>
+        <v>1296</v>
       </c>
       <c r="H149" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -8870,13 +8834,13 @@
         <v>1019</v>
       </c>
       <c r="F150" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="G150" t="s">
-        <v>1309</v>
+        <v>1297</v>
       </c>
       <c r="H150" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -8896,13 +8860,13 @@
         <v>1019</v>
       </c>
       <c r="F151" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="G151" t="s">
-        <v>1310</v>
+        <v>1298</v>
       </c>
       <c r="H151" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -8925,10 +8889,10 @@
         <v>1021</v>
       </c>
       <c r="G152" t="s">
-        <v>1209</v>
+        <v>1197</v>
       </c>
       <c r="H152" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -8948,13 +8912,13 @@
         <v>1019</v>
       </c>
       <c r="F153" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="G153" t="s">
-        <v>1311</v>
+        <v>1299</v>
       </c>
       <c r="H153" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -8974,13 +8938,13 @@
         <v>1021</v>
       </c>
       <c r="F154" t="s">
-        <v>1108</v>
+        <v>1098</v>
       </c>
       <c r="G154" t="s">
-        <v>1312</v>
+        <v>1300</v>
       </c>
       <c r="H154" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9003,10 +8967,10 @@
         <v>1021</v>
       </c>
       <c r="G155" t="s">
-        <v>1244</v>
+        <v>1232</v>
       </c>
       <c r="H155" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9029,10 +8993,10 @@
         <v>1048</v>
       </c>
       <c r="G156" t="s">
-        <v>1313</v>
+        <v>1301</v>
       </c>
       <c r="H156" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9052,13 +9016,13 @@
         <v>1025</v>
       </c>
       <c r="F157" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G157" t="s">
-        <v>1314</v>
+        <v>1302</v>
       </c>
       <c r="H157" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -9081,10 +9045,10 @@
         <v>1021</v>
       </c>
       <c r="G158" t="s">
-        <v>1315</v>
+        <v>1303</v>
       </c>
       <c r="H158" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -9107,10 +9071,10 @@
         <v>1021</v>
       </c>
       <c r="G159" t="s">
-        <v>1232</v>
+        <v>1220</v>
       </c>
       <c r="H159" t="s">
-        <v>1513</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -9130,13 +9094,13 @@
         <v>1027</v>
       </c>
       <c r="F160" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="G160" t="s">
-        <v>1316</v>
+        <v>1304</v>
       </c>
       <c r="H160" t="s">
-        <v>1538</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -9156,13 +9120,13 @@
         <v>1019</v>
       </c>
       <c r="F161" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="G161" t="s">
-        <v>1317</v>
+        <v>1305</v>
       </c>
       <c r="H161" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -9185,10 +9149,10 @@
         <v>1021</v>
       </c>
       <c r="G162" t="s">
-        <v>1318</v>
+        <v>1306</v>
       </c>
       <c r="H162" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -9211,10 +9175,10 @@
         <v>1021</v>
       </c>
       <c r="G163" t="s">
-        <v>1319</v>
+        <v>1307</v>
       </c>
       <c r="H163" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -9234,13 +9198,13 @@
         <v>1026</v>
       </c>
       <c r="F164" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="G164" t="s">
-        <v>1320</v>
+        <v>1308</v>
       </c>
       <c r="H164" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -9260,13 +9224,13 @@
         <v>1026</v>
       </c>
       <c r="F165" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="G165" t="s">
-        <v>1321</v>
+        <v>1309</v>
       </c>
       <c r="H165" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -9286,13 +9250,13 @@
         <v>1021</v>
       </c>
       <c r="F166" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="G166" t="s">
-        <v>1322</v>
+        <v>1310</v>
       </c>
       <c r="H166" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -9315,10 +9279,10 @@
         <v>1046</v>
       </c>
       <c r="G167" t="s">
-        <v>1323</v>
+        <v>1311</v>
       </c>
       <c r="H167" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -9341,10 +9305,10 @@
         <v>1021</v>
       </c>
       <c r="G168" t="s">
-        <v>1324</v>
+        <v>1312</v>
       </c>
       <c r="H168" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -9364,13 +9328,13 @@
         <v>1028</v>
       </c>
       <c r="F169" t="s">
-        <v>1114</v>
+        <v>1056</v>
       </c>
       <c r="G169" t="s">
-        <v>1325</v>
+        <v>1313</v>
       </c>
       <c r="H169" t="s">
-        <v>1539</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -9390,13 +9354,13 @@
         <v>1029</v>
       </c>
       <c r="F170" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="G170" t="s">
-        <v>1326</v>
+        <v>1314</v>
       </c>
       <c r="H170" t="s">
-        <v>1519</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -9419,10 +9383,10 @@
         <v>1048</v>
       </c>
       <c r="G171" t="s">
-        <v>1327</v>
+        <v>1315</v>
       </c>
       <c r="H171" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -9445,10 +9409,10 @@
         <v>1048</v>
       </c>
       <c r="G172" t="s">
-        <v>1328</v>
+        <v>1316</v>
       </c>
       <c r="H172" t="s">
-        <v>1518</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -9468,13 +9432,13 @@
         <v>1021</v>
       </c>
       <c r="F173" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G173" t="s">
-        <v>1329</v>
+        <v>1317</v>
       </c>
       <c r="H173" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -9494,13 +9458,13 @@
         <v>1023</v>
       </c>
       <c r="F174" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="G174" t="s">
-        <v>1330</v>
+        <v>1318</v>
       </c>
       <c r="H174" t="s">
-        <v>1509</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -9523,10 +9487,10 @@
         <v>1050</v>
       </c>
       <c r="G175" t="s">
-        <v>1331</v>
+        <v>1319</v>
       </c>
       <c r="H175" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -9546,13 +9510,13 @@
         <v>1020</v>
       </c>
       <c r="F176" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="G176" t="s">
-        <v>1332</v>
+        <v>1320</v>
       </c>
       <c r="H176" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -9575,10 +9539,10 @@
         <v>1048</v>
       </c>
       <c r="G177" t="s">
-        <v>1333</v>
+        <v>1321</v>
       </c>
       <c r="H177" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -9598,13 +9562,13 @@
         <v>1030</v>
       </c>
       <c r="F178" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="G178" t="s">
-        <v>1334</v>
+        <v>1322</v>
       </c>
       <c r="H178" t="s">
-        <v>1514</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -9624,13 +9588,13 @@
         <v>1031</v>
       </c>
       <c r="F179" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="G179" t="s">
-        <v>1335</v>
+        <v>1323</v>
       </c>
       <c r="H179" t="s">
-        <v>1540</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -9650,13 +9614,13 @@
         <v>1019</v>
       </c>
       <c r="F180" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G180" t="s">
-        <v>1336</v>
+        <v>1324</v>
       </c>
       <c r="H180" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -9676,13 +9640,13 @@
         <v>1032</v>
       </c>
       <c r="F181" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="G181" t="s">
-        <v>1337</v>
+        <v>1325</v>
       </c>
       <c r="H181" t="s">
-        <v>1514</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -9702,13 +9666,13 @@
         <v>1019</v>
       </c>
       <c r="F182" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="G182" t="s">
-        <v>1338</v>
+        <v>1326</v>
       </c>
       <c r="H182" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -9731,10 +9695,10 @@
         <v>1048</v>
       </c>
       <c r="G183" t="s">
-        <v>1339</v>
+        <v>1327</v>
       </c>
       <c r="H183" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -9754,13 +9718,13 @@
         <v>1030</v>
       </c>
       <c r="F184" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="G184" t="s">
-        <v>1340</v>
+        <v>1328</v>
       </c>
       <c r="H184" t="s">
-        <v>1509</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -9780,13 +9744,13 @@
         <v>1019</v>
       </c>
       <c r="F185" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="G185" t="s">
-        <v>1341</v>
+        <v>1329</v>
       </c>
       <c r="H185" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -9809,10 +9773,10 @@
         <v>1048</v>
       </c>
       <c r="G186" t="s">
-        <v>1342</v>
+        <v>1330</v>
       </c>
       <c r="H186" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -9835,10 +9799,10 @@
         <v>1019</v>
       </c>
       <c r="G187" t="s">
-        <v>1343</v>
+        <v>1331</v>
       </c>
       <c r="H187" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -9858,13 +9822,13 @@
         <v>1019</v>
       </c>
       <c r="F188" t="s">
-        <v>1074</v>
+        <v>1021</v>
       </c>
       <c r="G188" t="s">
-        <v>1344</v>
+        <v>1332</v>
       </c>
       <c r="H188" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -9887,10 +9851,10 @@
         <v>1021</v>
       </c>
       <c r="G189" t="s">
-        <v>1345</v>
+        <v>1333</v>
       </c>
       <c r="H189" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -9910,13 +9874,13 @@
         <v>1021</v>
       </c>
       <c r="F190" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G190" t="s">
-        <v>1346</v>
+        <v>1334</v>
       </c>
       <c r="H190" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -9936,13 +9900,13 @@
         <v>1020</v>
       </c>
       <c r="F191" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="G191" t="s">
-        <v>1347</v>
+        <v>1335</v>
       </c>
       <c r="H191" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -9962,13 +9926,13 @@
         <v>1034</v>
       </c>
       <c r="F192" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="G192" t="s">
-        <v>1348</v>
+        <v>1336</v>
       </c>
       <c r="H192" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -9991,10 +9955,10 @@
         <v>1019</v>
       </c>
       <c r="G193" t="s">
-        <v>1349</v>
+        <v>1337</v>
       </c>
       <c r="H193" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10014,13 +9978,13 @@
         <v>1025</v>
       </c>
       <c r="F194" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G194" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="H194" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10043,10 +10007,10 @@
         <v>1019</v>
       </c>
       <c r="G195" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
       <c r="H195" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -10066,13 +10030,13 @@
         <v>1026</v>
       </c>
       <c r="F196" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="G196" t="s">
-        <v>1352</v>
+        <v>1340</v>
       </c>
       <c r="H196" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -10092,13 +10056,13 @@
         <v>1021</v>
       </c>
       <c r="F197" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="G197" t="s">
-        <v>1353</v>
+        <v>1341</v>
       </c>
       <c r="H197" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -10118,13 +10082,13 @@
         <v>1026</v>
       </c>
       <c r="F198" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="G198" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
       <c r="H198" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -10144,13 +10108,13 @@
         <v>1035</v>
       </c>
       <c r="F199" t="s">
-        <v>1057</v>
+        <v>1075</v>
       </c>
       <c r="G199" t="s">
-        <v>1355</v>
+        <v>1343</v>
       </c>
       <c r="H199" t="s">
-        <v>1513</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -10170,13 +10134,13 @@
         <v>1036</v>
       </c>
       <c r="F200" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="G200" t="s">
-        <v>1356</v>
+        <v>1344</v>
       </c>
       <c r="H200" t="s">
-        <v>1509</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -10199,10 +10163,10 @@
         <v>1046</v>
       </c>
       <c r="G201" t="s">
-        <v>1357</v>
+        <v>1345</v>
       </c>
       <c r="H201" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -10225,10 +10189,10 @@
         <v>1026</v>
       </c>
       <c r="G202" t="s">
-        <v>1358</v>
+        <v>1346</v>
       </c>
       <c r="H202" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -10248,13 +10212,13 @@
         <v>1026</v>
       </c>
       <c r="F203" t="s">
-        <v>1048</v>
+        <v>1021</v>
       </c>
       <c r="G203" t="s">
-        <v>1359</v>
+        <v>1347</v>
       </c>
       <c r="H203" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -10277,10 +10241,10 @@
         <v>1019</v>
       </c>
       <c r="G204" t="s">
-        <v>1360</v>
+        <v>1348</v>
       </c>
       <c r="H204" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -10300,13 +10264,13 @@
         <v>1019</v>
       </c>
       <c r="F205" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="G205" t="s">
-        <v>1361</v>
+        <v>1349</v>
       </c>
       <c r="H205" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -10326,10 +10290,10 @@
         <v>1035</v>
       </c>
       <c r="G206" t="s">
-        <v>1362</v>
+        <v>1350</v>
       </c>
       <c r="H206" t="s">
-        <v>1509</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -10352,10 +10316,10 @@
         <v>1019</v>
       </c>
       <c r="G207" t="s">
-        <v>1363</v>
+        <v>1351</v>
       </c>
       <c r="H207" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -10375,13 +10339,13 @@
         <v>1026</v>
       </c>
       <c r="F208" t="s">
-        <v>1124</v>
+        <v>1088</v>
       </c>
       <c r="G208" t="s">
-        <v>1364</v>
+        <v>1352</v>
       </c>
       <c r="H208" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -10404,10 +10368,10 @@
         <v>1019</v>
       </c>
       <c r="G209" t="s">
-        <v>1349</v>
+        <v>1337</v>
       </c>
       <c r="H209" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -10430,10 +10394,10 @@
         <v>1019</v>
       </c>
       <c r="G210" t="s">
-        <v>1365</v>
+        <v>1353</v>
       </c>
       <c r="H210" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -10456,10 +10420,10 @@
         <v>1019</v>
       </c>
       <c r="G211" t="s">
-        <v>1366</v>
+        <v>1354</v>
       </c>
       <c r="H211" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -10479,13 +10443,13 @@
         <v>1035</v>
       </c>
       <c r="F212" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="G212" t="s">
-        <v>1367</v>
+        <v>1355</v>
       </c>
       <c r="H212" t="s">
-        <v>1513</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -10508,10 +10472,10 @@
         <v>1026</v>
       </c>
       <c r="G213" t="s">
-        <v>1368</v>
+        <v>1356</v>
       </c>
       <c r="H213" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -10531,13 +10495,13 @@
         <v>1035</v>
       </c>
       <c r="F214" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="G214" t="s">
-        <v>1369</v>
+        <v>1357</v>
       </c>
       <c r="H214" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -10557,13 +10521,13 @@
         <v>1035</v>
       </c>
       <c r="F215" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="G215" t="s">
-        <v>1370</v>
+        <v>1358</v>
       </c>
       <c r="H215" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -10586,10 +10550,10 @@
         <v>1019</v>
       </c>
       <c r="G216" t="s">
-        <v>1371</v>
+        <v>1359</v>
       </c>
       <c r="H216" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -10609,13 +10573,13 @@
         <v>1035</v>
       </c>
       <c r="F217" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="G217" t="s">
-        <v>1372</v>
+        <v>1360</v>
       </c>
       <c r="H217" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -10638,10 +10602,10 @@
         <v>1019</v>
       </c>
       <c r="G218" t="s">
-        <v>1373</v>
+        <v>1361</v>
       </c>
       <c r="H218" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -10661,13 +10625,13 @@
         <v>1019</v>
       </c>
       <c r="F219" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="G219" t="s">
-        <v>1374</v>
+        <v>1362</v>
       </c>
       <c r="H219" t="s">
-        <v>1513</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -10687,13 +10651,13 @@
         <v>1026</v>
       </c>
       <c r="F220" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="G220" t="s">
-        <v>1375</v>
+        <v>1363</v>
       </c>
       <c r="H220" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -10716,10 +10680,10 @@
         <v>1026</v>
       </c>
       <c r="G221" t="s">
-        <v>1376</v>
+        <v>1364</v>
       </c>
       <c r="H221" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -10742,10 +10706,10 @@
         <v>1026</v>
       </c>
       <c r="G222" t="s">
-        <v>1377</v>
+        <v>1365</v>
       </c>
       <c r="H222" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -10768,10 +10732,10 @@
         <v>1026</v>
       </c>
       <c r="G223" t="s">
-        <v>1378</v>
+        <v>1366</v>
       </c>
       <c r="H223" t="s">
-        <v>1521</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -10791,13 +10755,13 @@
         <v>1019</v>
       </c>
       <c r="F224" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G224" t="s">
-        <v>1379</v>
+        <v>1367</v>
       </c>
       <c r="H224" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -10817,13 +10781,13 @@
         <v>1019</v>
       </c>
       <c r="F225" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="G225" t="s">
-        <v>1380</v>
+        <v>1368</v>
       </c>
       <c r="H225" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -10843,13 +10807,13 @@
         <v>1037</v>
       </c>
       <c r="F226" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="G226" t="s">
-        <v>1381</v>
+        <v>1369</v>
       </c>
       <c r="H226" t="s">
-        <v>1521</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -10872,10 +10836,10 @@
         <v>1026</v>
       </c>
       <c r="G227" t="s">
-        <v>1382</v>
+        <v>1370</v>
       </c>
       <c r="H227" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -10898,10 +10862,10 @@
         <v>1026</v>
       </c>
       <c r="G228" t="s">
-        <v>1383</v>
+        <v>1371</v>
       </c>
       <c r="H228" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -10921,13 +10885,13 @@
         <v>1038</v>
       </c>
       <c r="F229" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="G229" t="s">
-        <v>1384</v>
+        <v>1372</v>
       </c>
       <c r="H229" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -10950,10 +10914,10 @@
         <v>1021</v>
       </c>
       <c r="G230" t="s">
-        <v>1385</v>
+        <v>1373</v>
       </c>
       <c r="H230" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -10976,10 +10940,10 @@
         <v>1026</v>
       </c>
       <c r="G231" t="s">
-        <v>1386</v>
+        <v>1374</v>
       </c>
       <c r="H231" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -10999,13 +10963,13 @@
         <v>1026</v>
       </c>
       <c r="F232" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="G232" t="s">
-        <v>1387</v>
+        <v>1375</v>
       </c>
       <c r="H232" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11028,10 +10992,10 @@
         <v>1026</v>
       </c>
       <c r="G233" t="s">
-        <v>1388</v>
+        <v>1376</v>
       </c>
       <c r="H233" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11051,13 +11015,13 @@
         <v>1019</v>
       </c>
       <c r="F234" t="s">
-        <v>1129</v>
+        <v>1044</v>
       </c>
       <c r="G234" t="s">
-        <v>1389</v>
+        <v>1377</v>
       </c>
       <c r="H234" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -11077,13 +11041,13 @@
         <v>1019</v>
       </c>
       <c r="F235" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="G235" t="s">
-        <v>1390</v>
+        <v>1378</v>
       </c>
       <c r="H235" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -11103,13 +11067,13 @@
         <v>1038</v>
       </c>
       <c r="F236" t="s">
-        <v>1130</v>
+        <v>1123</v>
       </c>
       <c r="G236" t="s">
-        <v>1391</v>
+        <v>1379</v>
       </c>
       <c r="H236" t="s">
-        <v>1541</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -11129,13 +11093,13 @@
         <v>1038</v>
       </c>
       <c r="F237" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="G237" t="s">
-        <v>1392</v>
+        <v>1380</v>
       </c>
       <c r="H237" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -11155,13 +11119,13 @@
         <v>1026</v>
       </c>
       <c r="F238" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G238" t="s">
-        <v>1393</v>
+        <v>1381</v>
       </c>
       <c r="H238" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -11181,13 +11145,13 @@
         <v>1037</v>
       </c>
       <c r="F239" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
       <c r="G239" t="s">
-        <v>1394</v>
+        <v>1382</v>
       </c>
       <c r="H239" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -11207,13 +11171,13 @@
         <v>1039</v>
       </c>
       <c r="F240" t="s">
-        <v>1132</v>
+        <v>1125</v>
       </c>
       <c r="G240" t="s">
-        <v>1395</v>
+        <v>1383</v>
       </c>
       <c r="H240" t="s">
-        <v>1509</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -11233,13 +11197,13 @@
         <v>1019</v>
       </c>
       <c r="F241" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="G241" t="s">
-        <v>1396</v>
+        <v>1384</v>
       </c>
       <c r="H241" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -11259,13 +11223,13 @@
         <v>1038</v>
       </c>
       <c r="F242" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="G242" t="s">
-        <v>1397</v>
+        <v>1385</v>
       </c>
       <c r="H242" t="s">
-        <v>1536</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -11288,10 +11252,10 @@
         <v>1026</v>
       </c>
       <c r="G243" t="s">
-        <v>1398</v>
+        <v>1386</v>
       </c>
       <c r="H243" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -11314,10 +11278,10 @@
         <v>1019</v>
       </c>
       <c r="G244" t="s">
-        <v>1399</v>
+        <v>1387</v>
       </c>
       <c r="H244" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -11337,13 +11301,13 @@
         <v>1026</v>
       </c>
       <c r="F245" t="s">
-        <v>1134</v>
+        <v>1127</v>
       </c>
       <c r="G245" t="s">
-        <v>1400</v>
+        <v>1388</v>
       </c>
       <c r="H245" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -11366,10 +11330,10 @@
         <v>1019</v>
       </c>
       <c r="G246" t="s">
-        <v>1401</v>
+        <v>1389</v>
       </c>
       <c r="H246" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -11392,10 +11356,10 @@
         <v>1019</v>
       </c>
       <c r="G247" t="s">
-        <v>1402</v>
+        <v>1390</v>
       </c>
       <c r="H247" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -11418,10 +11382,10 @@
         <v>1019</v>
       </c>
       <c r="G248" t="s">
-        <v>1403</v>
+        <v>1391</v>
       </c>
       <c r="H248" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -11444,10 +11408,10 @@
         <v>990</v>
       </c>
       <c r="G249" t="s">
-        <v>1404</v>
+        <v>1392</v>
       </c>
       <c r="H249" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -11467,13 +11431,13 @@
         <v>1026</v>
       </c>
       <c r="F250" t="s">
-        <v>1135</v>
+        <v>1065</v>
       </c>
       <c r="G250" t="s">
-        <v>1405</v>
+        <v>1393</v>
       </c>
       <c r="H250" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -11493,13 +11457,13 @@
         <v>1036</v>
       </c>
       <c r="F251" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="G251" t="s">
-        <v>1406</v>
+        <v>1394</v>
       </c>
       <c r="H251" t="s">
-        <v>1513</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -11519,13 +11483,13 @@
         <v>1026</v>
       </c>
       <c r="F252" t="s">
-        <v>1136</v>
+        <v>1128</v>
       </c>
       <c r="G252" t="s">
-        <v>1407</v>
+        <v>1395</v>
       </c>
       <c r="H252" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -11545,13 +11509,13 @@
         <v>1026</v>
       </c>
       <c r="F253" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="G253" t="s">
-        <v>1408</v>
+        <v>1396</v>
       </c>
       <c r="H253" t="s">
-        <v>1509</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -11571,13 +11535,13 @@
         <v>1026</v>
       </c>
       <c r="F254" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G254" t="s">
-        <v>1409</v>
+        <v>1397</v>
       </c>
       <c r="H254" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -11597,13 +11561,13 @@
         <v>1026</v>
       </c>
       <c r="F255" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="G255" t="s">
-        <v>1410</v>
+        <v>1398</v>
       </c>
       <c r="H255" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -11626,10 +11590,10 @@
         <v>1019</v>
       </c>
       <c r="G256" t="s">
-        <v>1411</v>
+        <v>1399</v>
       </c>
       <c r="H256" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -11652,10 +11616,10 @@
         <v>1019</v>
       </c>
       <c r="G257" t="s">
-        <v>1412</v>
+        <v>1400</v>
       </c>
       <c r="H257" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -11678,10 +11642,10 @@
         <v>1019</v>
       </c>
       <c r="G258" t="s">
-        <v>1343</v>
+        <v>1331</v>
       </c>
       <c r="H258" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -11704,10 +11668,10 @@
         <v>1019</v>
       </c>
       <c r="G259" t="s">
-        <v>1413</v>
+        <v>1401</v>
       </c>
       <c r="H259" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -11727,13 +11691,13 @@
         <v>1037</v>
       </c>
       <c r="F260" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="G260" t="s">
-        <v>1414</v>
+        <v>1402</v>
       </c>
       <c r="H260" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -11753,13 +11717,13 @@
         <v>1019</v>
       </c>
       <c r="F261" t="s">
-        <v>1137</v>
+        <v>1129</v>
       </c>
       <c r="G261" t="s">
-        <v>1415</v>
+        <v>1403</v>
       </c>
       <c r="H261" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -11779,13 +11743,13 @@
         <v>1036</v>
       </c>
       <c r="F262" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="G262" t="s">
-        <v>1416</v>
+        <v>1404</v>
       </c>
       <c r="H262" t="s">
-        <v>1513</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -11808,10 +11772,10 @@
         <v>1021</v>
       </c>
       <c r="G263" t="s">
-        <v>1417</v>
+        <v>1405</v>
       </c>
       <c r="H263" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -11831,13 +11795,13 @@
         <v>1019</v>
       </c>
       <c r="F264" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="G264" t="s">
-        <v>1418</v>
+        <v>1406</v>
       </c>
       <c r="H264" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -11860,10 +11824,10 @@
         <v>1019</v>
       </c>
       <c r="G265" t="s">
-        <v>1419</v>
+        <v>1407</v>
       </c>
       <c r="H265" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -11883,13 +11847,13 @@
         <v>1019</v>
       </c>
       <c r="F266" t="s">
-        <v>1138</v>
+        <v>1130</v>
       </c>
       <c r="G266" t="s">
-        <v>1420</v>
+        <v>1408</v>
       </c>
       <c r="H266" t="s">
-        <v>1521</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -11909,13 +11873,13 @@
         <v>1026</v>
       </c>
       <c r="F267" t="s">
-        <v>1139</v>
+        <v>1131</v>
       </c>
       <c r="G267" t="s">
-        <v>1421</v>
+        <v>1409</v>
       </c>
       <c r="H267" t="s">
-        <v>1513</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -11938,10 +11902,10 @@
         <v>1026</v>
       </c>
       <c r="G268" t="s">
-        <v>1422</v>
+        <v>1410</v>
       </c>
       <c r="H268" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -11964,10 +11928,10 @@
         <v>1021</v>
       </c>
       <c r="G269" t="s">
-        <v>1423</v>
+        <v>1411</v>
       </c>
       <c r="H269" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -11987,13 +11951,13 @@
         <v>1036</v>
       </c>
       <c r="F270" t="s">
-        <v>1140</v>
+        <v>1132</v>
       </c>
       <c r="G270" t="s">
-        <v>1424</v>
+        <v>1412</v>
       </c>
       <c r="H270" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12016,10 +11980,10 @@
         <v>1019</v>
       </c>
       <c r="G271" t="s">
-        <v>1425</v>
+        <v>1413</v>
       </c>
       <c r="H271" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12039,13 +12003,13 @@
         <v>1038</v>
       </c>
       <c r="F272" t="s">
-        <v>1141</v>
+        <v>1133</v>
       </c>
       <c r="G272" t="s">
-        <v>1426</v>
+        <v>1414</v>
       </c>
       <c r="H272" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12065,13 +12029,13 @@
         <v>1019</v>
       </c>
       <c r="F273" t="s">
-        <v>1142</v>
+        <v>1134</v>
       </c>
       <c r="G273" t="s">
-        <v>1427</v>
+        <v>1415</v>
       </c>
       <c r="H273" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -12091,13 +12055,13 @@
         <v>1019</v>
       </c>
       <c r="F274" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="G274" t="s">
-        <v>1428</v>
+        <v>1416</v>
       </c>
       <c r="H274" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -12117,13 +12081,13 @@
         <v>1026</v>
       </c>
       <c r="F275" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="G275" t="s">
-        <v>1429</v>
+        <v>1417</v>
       </c>
       <c r="H275" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -12146,10 +12110,10 @@
         <v>1026</v>
       </c>
       <c r="G276" t="s">
-        <v>1430</v>
+        <v>1418</v>
       </c>
       <c r="H276" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -12169,13 +12133,13 @@
         <v>1019</v>
       </c>
       <c r="F277" t="s">
-        <v>1143</v>
+        <v>1135</v>
       </c>
       <c r="G277" t="s">
-        <v>1431</v>
+        <v>1419</v>
       </c>
       <c r="H277" t="s">
-        <v>1521</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -12195,13 +12159,13 @@
         <v>1019</v>
       </c>
       <c r="F278" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="G278" t="s">
-        <v>1432</v>
+        <v>1420</v>
       </c>
       <c r="H278" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -12224,10 +12188,10 @@
         <v>1019</v>
       </c>
       <c r="G279" t="s">
-        <v>1433</v>
+        <v>1421</v>
       </c>
       <c r="H279" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -12247,13 +12211,13 @@
         <v>1019</v>
       </c>
       <c r="F280" t="s">
-        <v>1145</v>
+        <v>1109</v>
       </c>
       <c r="G280" t="s">
-        <v>1434</v>
+        <v>1422</v>
       </c>
       <c r="H280" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -12273,13 +12237,13 @@
         <v>1019</v>
       </c>
       <c r="F281" t="s">
-        <v>1146</v>
+        <v>1137</v>
       </c>
       <c r="G281" t="s">
-        <v>1435</v>
+        <v>1423</v>
       </c>
       <c r="H281" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -12299,13 +12263,13 @@
         <v>1019</v>
       </c>
       <c r="F282" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="G282" t="s">
-        <v>1436</v>
+        <v>1424</v>
       </c>
       <c r="H282" t="s">
-        <v>1521</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -12328,10 +12292,10 @@
         <v>1026</v>
       </c>
       <c r="G283" t="s">
-        <v>1437</v>
+        <v>1425</v>
       </c>
       <c r="H283" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -12351,13 +12315,13 @@
         <v>1019</v>
       </c>
       <c r="F284" t="s">
-        <v>1147</v>
+        <v>1138</v>
       </c>
       <c r="G284" t="s">
-        <v>1438</v>
+        <v>1426</v>
       </c>
       <c r="H284" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -12377,13 +12341,13 @@
         <v>1019</v>
       </c>
       <c r="F285" t="s">
-        <v>1148</v>
+        <v>1139</v>
       </c>
       <c r="G285" t="s">
-        <v>1439</v>
+        <v>1427</v>
       </c>
       <c r="H285" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -12403,13 +12367,13 @@
         <v>1019</v>
       </c>
       <c r="F286" t="s">
-        <v>1149</v>
+        <v>1140</v>
       </c>
       <c r="G286" t="s">
-        <v>1440</v>
+        <v>1428</v>
       </c>
       <c r="H286" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -12429,13 +12393,13 @@
         <v>1026</v>
       </c>
       <c r="F287" t="s">
-        <v>1150</v>
+        <v>1141</v>
       </c>
       <c r="G287" t="s">
-        <v>1441</v>
+        <v>1429</v>
       </c>
       <c r="H287" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -12455,13 +12419,13 @@
         <v>1040</v>
       </c>
       <c r="F288" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="G288" t="s">
-        <v>1442</v>
+        <v>1430</v>
       </c>
       <c r="H288" t="s">
-        <v>1518</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -12481,13 +12445,13 @@
         <v>1019</v>
       </c>
       <c r="F289" t="s">
-        <v>1151</v>
+        <v>1142</v>
       </c>
       <c r="G289" t="s">
-        <v>1443</v>
+        <v>1431</v>
       </c>
       <c r="H289" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -12507,13 +12471,13 @@
         <v>1019</v>
       </c>
       <c r="F290" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="G290" t="s">
-        <v>1444</v>
+        <v>1432</v>
       </c>
       <c r="H290" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -12536,10 +12500,10 @@
         <v>1021</v>
       </c>
       <c r="G291" t="s">
-        <v>1445</v>
+        <v>1433</v>
       </c>
       <c r="H291" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -12562,10 +12526,10 @@
         <v>1026</v>
       </c>
       <c r="G292" t="s">
-        <v>1382</v>
+        <v>1370</v>
       </c>
       <c r="H292" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -12585,13 +12549,13 @@
         <v>1019</v>
       </c>
       <c r="F293" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="G293" t="s">
-        <v>1446</v>
+        <v>1434</v>
       </c>
       <c r="H293" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -12614,10 +12578,10 @@
         <v>1019</v>
       </c>
       <c r="G294" t="s">
-        <v>1366</v>
+        <v>1354</v>
       </c>
       <c r="H294" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -12637,13 +12601,13 @@
         <v>1026</v>
       </c>
       <c r="F295" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G295" t="s">
-        <v>1447</v>
+        <v>1435</v>
       </c>
       <c r="H295" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -12666,10 +12630,10 @@
         <v>1019</v>
       </c>
       <c r="G296" t="s">
-        <v>1411</v>
+        <v>1399</v>
       </c>
       <c r="H296" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -12692,10 +12656,10 @@
         <v>1019</v>
       </c>
       <c r="G297" t="s">
-        <v>1448</v>
+        <v>1436</v>
       </c>
       <c r="H297" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -12718,10 +12682,10 @@
         <v>1026</v>
       </c>
       <c r="G298" t="s">
-        <v>1449</v>
+        <v>1437</v>
       </c>
       <c r="H298" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -12741,13 +12705,13 @@
         <v>1019</v>
       </c>
       <c r="F299" t="s">
-        <v>1152</v>
+        <v>1138</v>
       </c>
       <c r="G299" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="H299" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -12767,13 +12731,13 @@
         <v>1019</v>
       </c>
       <c r="F300" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="G300" t="s">
-        <v>1451</v>
+        <v>1439</v>
       </c>
       <c r="H300" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -12796,10 +12760,10 @@
         <v>1019</v>
       </c>
       <c r="G301" t="s">
-        <v>1452</v>
+        <v>1440</v>
       </c>
       <c r="H301" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -12819,13 +12783,13 @@
         <v>1036</v>
       </c>
       <c r="F302" t="s">
-        <v>1153</v>
+        <v>1143</v>
       </c>
       <c r="G302" t="s">
-        <v>1453</v>
+        <v>1441</v>
       </c>
       <c r="H302" t="s">
-        <v>1526</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -12848,10 +12812,10 @@
         <v>1026</v>
       </c>
       <c r="G303" t="s">
-        <v>1454</v>
+        <v>1442</v>
       </c>
       <c r="H303" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -12874,10 +12838,10 @@
         <v>1021</v>
       </c>
       <c r="G304" t="s">
-        <v>1455</v>
+        <v>1443</v>
       </c>
       <c r="H304" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -12900,10 +12864,10 @@
         <v>1026</v>
       </c>
       <c r="G305" t="s">
-        <v>1456</v>
+        <v>1444</v>
       </c>
       <c r="H305" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -12923,13 +12887,13 @@
         <v>1019</v>
       </c>
       <c r="F306" t="s">
-        <v>1154</v>
+        <v>1059</v>
       </c>
       <c r="G306" t="s">
-        <v>1457</v>
+        <v>1445</v>
       </c>
       <c r="H306" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -12952,10 +12916,10 @@
         <v>1019</v>
       </c>
       <c r="G307" t="s">
-        <v>1458</v>
+        <v>1446</v>
       </c>
       <c r="H307" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -12975,13 +12939,13 @@
         <v>1019</v>
       </c>
       <c r="F308" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="G308" t="s">
-        <v>1459</v>
+        <v>1447</v>
       </c>
       <c r="H308" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -13004,10 +12968,10 @@
         <v>1019</v>
       </c>
       <c r="G309" t="s">
-        <v>1366</v>
+        <v>1354</v>
       </c>
       <c r="H309" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -13030,10 +12994,10 @@
         <v>1026</v>
       </c>
       <c r="G310" t="s">
-        <v>1460</v>
+        <v>1448</v>
       </c>
       <c r="H310" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13056,10 +13020,10 @@
         <v>1026</v>
       </c>
       <c r="G311" t="s">
-        <v>1461</v>
+        <v>1449</v>
       </c>
       <c r="H311" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -13079,13 +13043,13 @@
         <v>1026</v>
       </c>
       <c r="F312" t="s">
-        <v>1155</v>
+        <v>1144</v>
       </c>
       <c r="G312" t="s">
-        <v>1462</v>
+        <v>1450</v>
       </c>
       <c r="H312" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -13105,13 +13069,13 @@
         <v>1037</v>
       </c>
       <c r="F313" t="s">
-        <v>1156</v>
+        <v>1145</v>
       </c>
       <c r="G313" t="s">
-        <v>1463</v>
+        <v>1451</v>
       </c>
       <c r="H313" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -13134,10 +13098,10 @@
         <v>1019</v>
       </c>
       <c r="G314" t="s">
-        <v>1419</v>
+        <v>1407</v>
       </c>
       <c r="H314" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -13160,10 +13124,10 @@
         <v>1026</v>
       </c>
       <c r="G315" t="s">
-        <v>1464</v>
+        <v>1452</v>
       </c>
       <c r="H315" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -13183,13 +13147,13 @@
         <v>1019</v>
       </c>
       <c r="F316" t="s">
-        <v>1157</v>
+        <v>1146</v>
       </c>
       <c r="G316" t="s">
-        <v>1465</v>
+        <v>1453</v>
       </c>
       <c r="H316" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -13209,13 +13173,13 @@
         <v>1026</v>
       </c>
       <c r="F317" t="s">
-        <v>1158</v>
+        <v>1147</v>
       </c>
       <c r="G317" t="s">
-        <v>1466</v>
+        <v>1454</v>
       </c>
       <c r="H317" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -13235,13 +13199,13 @@
         <v>1026</v>
       </c>
       <c r="F318" t="s">
-        <v>1108</v>
+        <v>1094</v>
       </c>
       <c r="G318" t="s">
-        <v>1467</v>
+        <v>1455</v>
       </c>
       <c r="H318" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -13261,13 +13225,13 @@
         <v>1026</v>
       </c>
       <c r="F319" t="s">
-        <v>1134</v>
+        <v>1088</v>
       </c>
       <c r="G319" t="s">
-        <v>1468</v>
+        <v>1456</v>
       </c>
       <c r="H319" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -13290,10 +13254,10 @@
         <v>1019</v>
       </c>
       <c r="G320" t="s">
-        <v>1469</v>
+        <v>1457</v>
       </c>
       <c r="H320" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -13316,10 +13280,10 @@
         <v>1026</v>
       </c>
       <c r="G321" t="s">
-        <v>1470</v>
+        <v>1458</v>
       </c>
       <c r="H321" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -13339,13 +13303,13 @@
         <v>1038</v>
       </c>
       <c r="F322" t="s">
-        <v>1159</v>
+        <v>1148</v>
       </c>
       <c r="G322" t="s">
-        <v>1471</v>
+        <v>1459</v>
       </c>
       <c r="H322" t="s">
-        <v>1526</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -13365,13 +13329,13 @@
         <v>1038</v>
       </c>
       <c r="F323" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="G323" t="s">
-        <v>1472</v>
+        <v>1460</v>
       </c>
       <c r="H323" t="s">
-        <v>1519</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -13394,10 +13358,10 @@
         <v>1026</v>
       </c>
       <c r="G324" t="s">
-        <v>1473</v>
+        <v>1461</v>
       </c>
       <c r="H324" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -13420,10 +13384,10 @@
         <v>990</v>
       </c>
       <c r="G325" t="s">
-        <v>1474</v>
+        <v>1462</v>
       </c>
       <c r="H325" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -13446,10 +13410,10 @@
         <v>1019</v>
       </c>
       <c r="G326" t="s">
-        <v>1475</v>
+        <v>1463</v>
       </c>
       <c r="H326" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -13472,10 +13436,10 @@
         <v>1026</v>
       </c>
       <c r="G327" t="s">
-        <v>1476</v>
+        <v>1464</v>
       </c>
       <c r="H327" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -13495,13 +13459,13 @@
         <v>1026</v>
       </c>
       <c r="F328" t="s">
-        <v>1160</v>
+        <v>1149</v>
       </c>
       <c r="G328" t="s">
-        <v>1477</v>
+        <v>1465</v>
       </c>
       <c r="H328" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -13521,13 +13485,13 @@
         <v>1026</v>
       </c>
       <c r="F329" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="G329" t="s">
-        <v>1478</v>
+        <v>1466</v>
       </c>
       <c r="H329" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -13547,13 +13511,13 @@
         <v>1035</v>
       </c>
       <c r="F330" t="s">
-        <v>1134</v>
+        <v>1127</v>
       </c>
       <c r="G330" t="s">
-        <v>1479</v>
+        <v>1467</v>
       </c>
       <c r="H330" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -13576,10 +13540,10 @@
         <v>1021</v>
       </c>
       <c r="G331" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
       <c r="H331" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -13599,13 +13563,13 @@
         <v>1035</v>
       </c>
       <c r="F332" t="s">
-        <v>1161</v>
+        <v>1026</v>
       </c>
       <c r="G332" t="s">
-        <v>1481</v>
+        <v>1469</v>
       </c>
       <c r="H332" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -13625,13 +13589,13 @@
         <v>1035</v>
       </c>
       <c r="F333" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="G333" t="s">
-        <v>1482</v>
+        <v>1470</v>
       </c>
       <c r="H333" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -13651,13 +13615,13 @@
         <v>1026</v>
       </c>
       <c r="F334" t="s">
-        <v>1162</v>
+        <v>1150</v>
       </c>
       <c r="G334" t="s">
-        <v>1483</v>
+        <v>1471</v>
       </c>
       <c r="H334" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -13677,13 +13641,13 @@
         <v>1026</v>
       </c>
       <c r="F335" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="G335" t="s">
-        <v>1484</v>
+        <v>1472</v>
       </c>
       <c r="H335" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -13703,13 +13667,13 @@
         <v>1026</v>
       </c>
       <c r="F336" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="G336" t="s">
-        <v>1485</v>
+        <v>1473</v>
       </c>
       <c r="H336" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -13732,10 +13696,10 @@
         <v>1026</v>
       </c>
       <c r="G337" t="s">
-        <v>1486</v>
+        <v>1474</v>
       </c>
       <c r="H337" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -13758,10 +13722,10 @@
         <v>1026</v>
       </c>
       <c r="G338" t="s">
-        <v>1487</v>
+        <v>1475</v>
       </c>
       <c r="H338" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -13781,13 +13745,13 @@
         <v>1026</v>
       </c>
       <c r="F339" t="s">
-        <v>1163</v>
+        <v>1151</v>
       </c>
       <c r="G339" t="s">
-        <v>1488</v>
+        <v>1476</v>
       </c>
       <c r="H339" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -13810,10 +13774,10 @@
         <v>1026</v>
       </c>
       <c r="G340" t="s">
-        <v>1489</v>
+        <v>1477</v>
       </c>
       <c r="H340" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -13833,13 +13797,13 @@
         <v>1024</v>
       </c>
       <c r="F341" t="s">
-        <v>1164</v>
+        <v>1152</v>
       </c>
       <c r="G341" t="s">
-        <v>1490</v>
+        <v>1478</v>
       </c>
       <c r="H341" t="s">
-        <v>1509</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -13859,13 +13823,13 @@
         <v>1026</v>
       </c>
       <c r="F342" t="s">
-        <v>1056</v>
+        <v>1026</v>
       </c>
       <c r="G342" t="s">
-        <v>1491</v>
+        <v>1479</v>
       </c>
       <c r="H342" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -13885,13 +13849,13 @@
         <v>1026</v>
       </c>
       <c r="F343" t="s">
-        <v>1122</v>
+        <v>1059</v>
       </c>
       <c r="G343" t="s">
-        <v>1492</v>
+        <v>1480</v>
       </c>
       <c r="H343" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -13911,13 +13875,13 @@
         <v>1026</v>
       </c>
       <c r="F344" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="G344" t="s">
-        <v>1493</v>
+        <v>1481</v>
       </c>
       <c r="H344" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -13937,13 +13901,13 @@
         <v>1026</v>
       </c>
       <c r="F345" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="G345" t="s">
-        <v>1494</v>
+        <v>1482</v>
       </c>
       <c r="H345" t="s">
-        <v>1511</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -13966,10 +13930,10 @@
         <v>1026</v>
       </c>
       <c r="G346" t="s">
-        <v>1456</v>
+        <v>1444</v>
       </c>
       <c r="H346" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -13989,13 +13953,13 @@
         <v>1026</v>
       </c>
       <c r="F347" t="s">
-        <v>1134</v>
+        <v>1088</v>
       </c>
       <c r="G347" t="s">
-        <v>1495</v>
+        <v>1483</v>
       </c>
       <c r="H347" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -14018,10 +13982,10 @@
         <v>1021</v>
       </c>
       <c r="G348" t="s">
+        <v>1484</v>
+      </c>
+      <c r="H348" t="s">
         <v>1496</v>
-      </c>
-      <c r="H348" t="s">
-        <v>1508</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14041,13 +14005,13 @@
         <v>1026</v>
       </c>
       <c r="F349" t="s">
-        <v>1111</v>
+        <v>1055</v>
       </c>
       <c r="G349" t="s">
-        <v>1497</v>
+        <v>1485</v>
       </c>
       <c r="H349" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -14070,10 +14034,10 @@
         <v>1026</v>
       </c>
       <c r="G350" t="s">
-        <v>1498</v>
+        <v>1486</v>
       </c>
       <c r="H350" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -14093,13 +14057,13 @@
         <v>1026</v>
       </c>
       <c r="F351" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G351" t="s">
-        <v>1499</v>
+        <v>1487</v>
       </c>
       <c r="H351" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -14122,10 +14086,10 @@
         <v>1021</v>
       </c>
       <c r="G352" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
       <c r="H352" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -14148,10 +14112,10 @@
         <v>1021</v>
       </c>
       <c r="G353" t="s">
-        <v>1501</v>
+        <v>1489</v>
       </c>
       <c r="H353" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -14171,13 +14135,13 @@
         <v>1026</v>
       </c>
       <c r="F354" t="s">
-        <v>1165</v>
+        <v>1153</v>
       </c>
       <c r="G354" t="s">
-        <v>1502</v>
+        <v>1490</v>
       </c>
       <c r="H354" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -14200,10 +14164,10 @@
         <v>1045</v>
       </c>
       <c r="G355" t="s">
-        <v>1503</v>
+        <v>1491</v>
       </c>
       <c r="H355" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -14226,10 +14190,10 @@
         <v>1026</v>
       </c>
       <c r="G356" t="s">
-        <v>1504</v>
+        <v>1492</v>
       </c>
       <c r="H356" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -14252,10 +14216,10 @@
         <v>1021</v>
       </c>
       <c r="G357" t="s">
-        <v>1505</v>
+        <v>1493</v>
       </c>
       <c r="H357" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -14275,13 +14239,13 @@
         <v>1026</v>
       </c>
       <c r="F358" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="G358" t="s">
-        <v>1506</v>
+        <v>1494</v>
       </c>
       <c r="H358" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -14304,10 +14268,10 @@
         <v>1026</v>
       </c>
       <c r="G359" t="s">
-        <v>1507</v>
+        <v>1495</v>
       </c>
       <c r="H359" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
   </sheetData>
